--- a/Test Senior Assessment Calendar.xlsx
+++ b/Test Senior Assessment Calendar.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="29429"/>
   <workbookPr/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{4EB903B4-3245-4FB2-B2B2-F7C67FB9BE2B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{52A77926-9555-488D-A2C4-EA23E75FB0B1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="575" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="580" uniqueCount="89">
   <si>
     <t>Week</t>
   </si>
@@ -155,6 +155,12 @@
     <t>30/10/2025</t>
   </si>
   <si>
+    <t>Specialist Maths</t>
+  </si>
+  <si>
+    <t>Trigonometry Test</t>
+  </si>
+  <si>
     <t>Fri</t>
   </si>
   <si>
@@ -191,12 +197,24 @@
     <t>13/11/2025</t>
   </si>
   <si>
+    <t>Maths Methods</t>
+  </si>
+  <si>
+    <t>Methods Test</t>
+  </si>
+  <si>
     <t>14/11/2025</t>
   </si>
   <si>
     <t>17/11/2025</t>
   </si>
   <si>
+    <t>Physics</t>
+  </si>
+  <si>
+    <t xml:space="preserve">POgew gwe </t>
+  </si>
+  <si>
     <t>18/11/2025</t>
   </si>
   <si>
@@ -209,6 +227,12 @@
     <t>21/11/2025</t>
   </si>
   <si>
+    <t>Music</t>
+  </si>
+  <si>
+    <t>Musical</t>
+  </si>
+  <si>
     <t>24/11/2025</t>
   </si>
   <si>
@@ -221,6 +245,12 @@
     <t>27/11/2025</t>
   </si>
   <si>
+    <t>Excersice Science</t>
+  </si>
+  <si>
+    <t>Excersise thingo</t>
+  </si>
+  <si>
     <t>28/11/2025</t>
   </si>
   <si>
@@ -239,31 +269,16 @@
     <t>Essential Maths</t>
   </si>
   <si>
-    <t>Maths Methods</t>
-  </si>
-  <si>
-    <t>Specialist Maths</t>
-  </si>
-  <si>
     <t>Textiles</t>
   </si>
   <si>
     <t>Human Biology</t>
   </si>
   <si>
-    <t>Excersice Science</t>
-  </si>
-  <si>
-    <t>Physics</t>
-  </si>
-  <si>
     <t>Design Tech</t>
   </si>
   <si>
     <t>Visual Arts</t>
-  </si>
-  <si>
-    <t>Music</t>
   </si>
   <si>
     <t>PERSON</t>
@@ -338,10 +353,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -691,8 +706,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Q106"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I31" sqref="I31"/>
+    <sheetView tabSelected="1" topLeftCell="A55" workbookViewId="0">
+      <selection activeCell="H72" sqref="H72"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -750,16 +765,16 @@
       </c>
     </row>
     <row r="2" spans="1:17">
-      <c r="A2" s="6">
+      <c r="A2" s="5">
         <v>1</v>
       </c>
-      <c r="B2" s="6" t="s">
+      <c r="B2" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="C2" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="D2" s="6"/>
+      <c r="D2" s="5"/>
       <c r="E2" t="s">
         <v>16</v>
       </c>
@@ -783,10 +798,10 @@
       </c>
     </row>
     <row r="3" spans="1:17">
-      <c r="A3" s="6"/>
-      <c r="B3" s="6"/>
-      <c r="C3" s="5"/>
-      <c r="D3" s="6"/>
+      <c r="A3" s="5"/>
+      <c r="B3" s="5"/>
+      <c r="C3" s="6"/>
+      <c r="D3" s="5"/>
       <c r="E3" t="s">
         <v>20</v>
       </c>
@@ -807,10 +822,10 @@
       </c>
     </row>
     <row r="4" spans="1:17">
-      <c r="A4" s="6"/>
-      <c r="B4" s="6"/>
-      <c r="C4" s="5"/>
-      <c r="D4" s="6"/>
+      <c r="A4" s="5"/>
+      <c r="B4" s="5"/>
+      <c r="C4" s="6"/>
+      <c r="D4" s="5"/>
       <c r="E4" t="s">
         <v>16</v>
       </c>
@@ -831,14 +846,14 @@
       </c>
     </row>
     <row r="5" spans="1:17">
-      <c r="A5" s="6"/>
-      <c r="B5" s="6" t="s">
+      <c r="A5" s="5"/>
+      <c r="B5" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="C5" s="5" t="s">
+      <c r="C5" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="D5" s="6"/>
+      <c r="D5" s="5"/>
       <c r="E5" t="s">
         <v>20</v>
       </c>
@@ -853,10 +868,10 @@
       </c>
     </row>
     <row r="6" spans="1:17">
-      <c r="A6" s="6"/>
-      <c r="B6" s="6"/>
-      <c r="C6" s="6"/>
-      <c r="D6" s="6"/>
+      <c r="A6" s="5"/>
+      <c r="B6" s="5"/>
+      <c r="C6" s="5"/>
+      <c r="D6" s="5"/>
       <c r="E6" t="s">
         <v>20</v>
       </c>
@@ -871,10 +886,10 @@
       </c>
     </row>
     <row r="7" spans="1:17">
-      <c r="A7" s="6"/>
-      <c r="B7" s="6"/>
-      <c r="C7" s="6"/>
-      <c r="D7" s="6"/>
+      <c r="A7" s="5"/>
+      <c r="B7" s="5"/>
+      <c r="C7" s="5"/>
+      <c r="D7" s="5"/>
       <c r="E7" t="s">
         <v>29</v>
       </c>
@@ -895,14 +910,14 @@
       </c>
     </row>
     <row r="8" spans="1:17">
-      <c r="A8" s="6"/>
-      <c r="B8" s="6" t="s">
+      <c r="A8" s="5"/>
+      <c r="B8" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="C8" s="5" t="s">
+      <c r="C8" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="D8" s="6"/>
+      <c r="D8" s="5"/>
       <c r="E8" t="s">
         <v>20</v>
       </c>
@@ -917,10 +932,10 @@
       </c>
     </row>
     <row r="9" spans="1:17">
-      <c r="A9" s="6"/>
-      <c r="B9" s="6"/>
-      <c r="C9" s="5"/>
-      <c r="D9" s="6"/>
+      <c r="A9" s="5"/>
+      <c r="B9" s="5"/>
+      <c r="C9" s="6"/>
+      <c r="D9" s="5"/>
       <c r="E9" t="s">
         <v>20</v>
       </c>
@@ -938,10 +953,10 @@
       </c>
     </row>
     <row r="10" spans="1:17">
-      <c r="A10" s="6"/>
-      <c r="B10" s="6"/>
-      <c r="C10" s="5"/>
-      <c r="D10" s="6"/>
+      <c r="A10" s="5"/>
+      <c r="B10" s="5"/>
+      <c r="C10" s="6"/>
+      <c r="D10" s="5"/>
       <c r="E10" t="s">
         <v>35</v>
       </c>
@@ -965,19 +980,25 @@
       </c>
     </row>
     <row r="11" spans="1:17">
-      <c r="A11" s="6"/>
-      <c r="B11" s="6" t="s">
+      <c r="A11" s="5"/>
+      <c r="B11" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="C11" s="5" t="s">
+      <c r="C11" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="D11" s="6"/>
+      <c r="D11" s="5"/>
       <c r="E11" t="s">
-        <v>20</v>
+        <v>40</v>
+      </c>
+      <c r="F11" t="s">
+        <v>41</v>
+      </c>
+      <c r="G11" s="3">
+        <v>0.25</v>
       </c>
       <c r="H11" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="J11" t="s">
         <v>20</v>
@@ -988,10 +1009,10 @@
       <c r="O11" s="4"/>
     </row>
     <row r="12" spans="1:17">
-      <c r="A12" s="6"/>
-      <c r="B12" s="6"/>
-      <c r="C12" s="6"/>
-      <c r="D12" s="6"/>
+      <c r="A12" s="5"/>
+      <c r="B12" s="5"/>
+      <c r="C12" s="5"/>
+      <c r="D12" s="5"/>
       <c r="E12" t="s">
         <v>20</v>
       </c>
@@ -1006,10 +1027,10 @@
       </c>
     </row>
     <row r="13" spans="1:17">
-      <c r="A13" s="6"/>
-      <c r="B13" s="6"/>
-      <c r="C13" s="6"/>
-      <c r="D13" s="6"/>
+      <c r="A13" s="5"/>
+      <c r="B13" s="5"/>
+      <c r="C13" s="5"/>
+      <c r="D13" s="5"/>
       <c r="E13" t="s">
         <v>20</v>
       </c>
@@ -1024,22 +1045,22 @@
       </c>
     </row>
     <row r="14" spans="1:17">
-      <c r="A14" s="6"/>
-      <c r="B14" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="C14" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="D14" s="6"/>
+      <c r="A14" s="5"/>
+      <c r="B14" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="C14" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="D14" s="5"/>
       <c r="E14" t="s">
         <v>35</v>
       </c>
       <c r="F14" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="H14" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="J14" t="s">
         <v>20</v>
@@ -1049,10 +1070,10 @@
       </c>
     </row>
     <row r="15" spans="1:17">
-      <c r="A15" s="6"/>
-      <c r="B15" s="6"/>
-      <c r="C15" s="5"/>
-      <c r="D15" s="6"/>
+      <c r="A15" s="5"/>
+      <c r="B15" s="5"/>
+      <c r="C15" s="6"/>
+      <c r="D15" s="5"/>
       <c r="E15" t="s">
         <v>20</v>
       </c>
@@ -1067,10 +1088,10 @@
       </c>
     </row>
     <row r="16" spans="1:17">
-      <c r="A16" s="6"/>
-      <c r="B16" s="6"/>
-      <c r="C16" s="5"/>
-      <c r="D16" s="6"/>
+      <c r="A16" s="5"/>
+      <c r="B16" s="5"/>
+      <c r="C16" s="6"/>
+      <c r="D16" s="5"/>
       <c r="E16" t="s">
         <v>20</v>
       </c>
@@ -1085,16 +1106,16 @@
       </c>
     </row>
     <row r="17" spans="1:13">
-      <c r="A17" s="6">
+      <c r="A17" s="5">
         <v>2</v>
       </c>
-      <c r="B17" s="6" t="s">
+      <c r="B17" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="C17" s="5">
+      <c r="C17" s="6">
         <v>45727</v>
       </c>
-      <c r="D17" s="6"/>
+      <c r="D17" s="5"/>
       <c r="E17" t="s">
         <v>20</v>
       </c>
@@ -1109,15 +1130,15 @@
       </c>
     </row>
     <row r="18" spans="1:13">
-      <c r="A18" s="6"/>
-      <c r="B18" s="6"/>
-      <c r="C18" s="6"/>
-      <c r="D18" s="6"/>
+      <c r="A18" s="5"/>
+      <c r="B18" s="5"/>
+      <c r="C18" s="5"/>
+      <c r="D18" s="5"/>
       <c r="E18" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="F18" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="G18" s="3">
         <v>0.9</v>
@@ -1126,7 +1147,7 @@
         <v>31</v>
       </c>
       <c r="I18" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="J18" t="s">
         <v>20</v>
@@ -1136,10 +1157,10 @@
       </c>
     </row>
     <row r="19" spans="1:13">
-      <c r="A19" s="6"/>
-      <c r="B19" s="6"/>
-      <c r="C19" s="6"/>
-      <c r="D19" s="6"/>
+      <c r="A19" s="5"/>
+      <c r="B19" s="5"/>
+      <c r="C19" s="5"/>
+      <c r="D19" s="5"/>
       <c r="E19" t="s">
         <v>20</v>
       </c>
@@ -1154,14 +1175,14 @@
       </c>
     </row>
     <row r="20" spans="1:13">
-      <c r="A20" s="6"/>
-      <c r="B20" s="6" t="s">
+      <c r="A20" s="5"/>
+      <c r="B20" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="C20" s="5">
+      <c r="C20" s="6">
         <v>45758</v>
       </c>
-      <c r="D20" s="6"/>
+      <c r="D20" s="5"/>
       <c r="E20" t="s">
         <v>20</v>
       </c>
@@ -1176,10 +1197,10 @@
       </c>
     </row>
     <row r="21" spans="1:13">
-      <c r="A21" s="6"/>
-      <c r="B21" s="6"/>
-      <c r="C21" s="5"/>
-      <c r="D21" s="6"/>
+      <c r="A21" s="5"/>
+      <c r="B21" s="5"/>
+      <c r="C21" s="6"/>
+      <c r="D21" s="5"/>
       <c r="E21" t="s">
         <v>20</v>
       </c>
@@ -1194,10 +1215,10 @@
       </c>
     </row>
     <row r="22" spans="1:13">
-      <c r="A22" s="6"/>
-      <c r="B22" s="6"/>
-      <c r="C22" s="5"/>
-      <c r="D22" s="6"/>
+      <c r="A22" s="5"/>
+      <c r="B22" s="5"/>
+      <c r="C22" s="6"/>
+      <c r="D22" s="5"/>
       <c r="E22" t="s">
         <v>20</v>
       </c>
@@ -1212,14 +1233,14 @@
       </c>
     </row>
     <row r="23" spans="1:13">
-      <c r="A23" s="6"/>
-      <c r="B23" s="6" t="s">
+      <c r="A23" s="5"/>
+      <c r="B23" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="C23" s="5">
+      <c r="C23" s="6">
         <v>45788</v>
       </c>
-      <c r="D23" s="6"/>
+      <c r="D23" s="5"/>
       <c r="E23" t="s">
         <v>20</v>
       </c>
@@ -1234,10 +1255,10 @@
       </c>
     </row>
     <row r="24" spans="1:13">
-      <c r="A24" s="6"/>
-      <c r="B24" s="6"/>
-      <c r="C24" s="5"/>
-      <c r="D24" s="6"/>
+      <c r="A24" s="5"/>
+      <c r="B24" s="5"/>
+      <c r="C24" s="6"/>
+      <c r="D24" s="5"/>
       <c r="E24" t="s">
         <v>20</v>
       </c>
@@ -1252,24 +1273,24 @@
       </c>
     </row>
     <row r="25" spans="1:13">
-      <c r="A25" s="6"/>
-      <c r="B25" s="6"/>
-      <c r="C25" s="5"/>
-      <c r="D25" s="6"/>
+      <c r="A25" s="5"/>
+      <c r="B25" s="5"/>
+      <c r="C25" s="6"/>
+      <c r="D25" s="5"/>
       <c r="E25" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="F25" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="G25" s="3">
         <v>0.99</v>
       </c>
       <c r="H25" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="I25" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="J25" t="s">
         <v>20</v>
@@ -1279,14 +1300,14 @@
       </c>
     </row>
     <row r="26" spans="1:13">
-      <c r="A26" s="6"/>
-      <c r="B26" s="6" t="s">
+      <c r="A26" s="5"/>
+      <c r="B26" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="C26" s="5">
+      <c r="C26" s="6">
         <v>45819</v>
       </c>
-      <c r="D26" s="6"/>
+      <c r="D26" s="5"/>
       <c r="E26" t="s">
         <v>20</v>
       </c>
@@ -1301,10 +1322,10 @@
       </c>
     </row>
     <row r="27" spans="1:13">
-      <c r="A27" s="6"/>
-      <c r="B27" s="6"/>
-      <c r="C27" s="6"/>
-      <c r="D27" s="6"/>
+      <c r="A27" s="5"/>
+      <c r="B27" s="5"/>
+      <c r="C27" s="5"/>
+      <c r="D27" s="5"/>
       <c r="E27" t="s">
         <v>20</v>
       </c>
@@ -1319,10 +1340,10 @@
       </c>
     </row>
     <row r="28" spans="1:13">
-      <c r="A28" s="6"/>
-      <c r="B28" s="6"/>
-      <c r="C28" s="6"/>
-      <c r="D28" s="6"/>
+      <c r="A28" s="5"/>
+      <c r="B28" s="5"/>
+      <c r="C28" s="5"/>
+      <c r="D28" s="5"/>
       <c r="E28" t="s">
         <v>20</v>
       </c>
@@ -1337,14 +1358,14 @@
       </c>
     </row>
     <row r="29" spans="1:13">
-      <c r="A29" s="6"/>
-      <c r="B29" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="C29" s="5">
+      <c r="A29" s="5"/>
+      <c r="B29" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="C29" s="6">
         <v>45849</v>
       </c>
-      <c r="D29" s="6"/>
+      <c r="D29" s="5"/>
       <c r="E29" t="s">
         <v>20</v>
       </c>
@@ -1359,10 +1380,10 @@
       </c>
     </row>
     <row r="30" spans="1:13">
-      <c r="A30" s="6"/>
-      <c r="B30" s="6"/>
-      <c r="C30" s="5"/>
-      <c r="D30" s="6"/>
+      <c r="A30" s="5"/>
+      <c r="B30" s="5"/>
+      <c r="C30" s="6"/>
+      <c r="D30" s="5"/>
       <c r="E30" t="s">
         <v>20</v>
       </c>
@@ -1377,10 +1398,10 @@
       </c>
     </row>
     <row r="31" spans="1:13">
-      <c r="A31" s="6"/>
-      <c r="B31" s="6"/>
-      <c r="C31" s="5"/>
-      <c r="D31" s="6"/>
+      <c r="A31" s="5"/>
+      <c r="B31" s="5"/>
+      <c r="C31" s="6"/>
+      <c r="D31" s="5"/>
       <c r="E31" t="s">
         <v>20</v>
       </c>
@@ -1395,16 +1416,16 @@
       </c>
     </row>
     <row r="32" spans="1:13">
-      <c r="A32" s="6">
+      <c r="A32" s="5">
         <v>3</v>
       </c>
-      <c r="B32" s="6" t="s">
+      <c r="B32" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="C32" s="5">
+      <c r="C32" s="6">
         <v>45941</v>
       </c>
-      <c r="D32" s="6"/>
+      <c r="D32" s="5"/>
       <c r="E32" t="s">
         <v>20</v>
       </c>
@@ -1419,10 +1440,10 @@
       </c>
     </row>
     <row r="33" spans="1:13">
-      <c r="A33" s="6"/>
-      <c r="B33" s="6"/>
-      <c r="C33" s="5"/>
-      <c r="D33" s="6"/>
+      <c r="A33" s="5"/>
+      <c r="B33" s="5"/>
+      <c r="C33" s="6"/>
+      <c r="D33" s="5"/>
       <c r="E33" t="s">
         <v>20</v>
       </c>
@@ -1437,10 +1458,10 @@
       </c>
     </row>
     <row r="34" spans="1:13">
-      <c r="A34" s="6"/>
-      <c r="B34" s="6"/>
-      <c r="C34" s="5"/>
-      <c r="D34" s="6"/>
+      <c r="A34" s="5"/>
+      <c r="B34" s="5"/>
+      <c r="C34" s="6"/>
+      <c r="D34" s="5"/>
       <c r="E34" t="s">
         <v>20</v>
       </c>
@@ -1455,14 +1476,14 @@
       </c>
     </row>
     <row r="35" spans="1:13">
-      <c r="A35" s="6"/>
-      <c r="B35" s="6" t="s">
+      <c r="A35" s="5"/>
+      <c r="B35" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="C35" s="5">
+      <c r="C35" s="6">
         <v>45972</v>
       </c>
-      <c r="D35" s="6"/>
+      <c r="D35" s="5"/>
       <c r="E35" t="s">
         <v>20</v>
       </c>
@@ -1477,10 +1498,10 @@
       </c>
     </row>
     <row r="36" spans="1:13">
-      <c r="A36" s="6"/>
-      <c r="B36" s="6"/>
-      <c r="C36" s="6"/>
-      <c r="D36" s="6"/>
+      <c r="A36" s="5"/>
+      <c r="B36" s="5"/>
+      <c r="C36" s="5"/>
+      <c r="D36" s="5"/>
       <c r="E36" t="s">
         <v>20</v>
       </c>
@@ -1495,10 +1516,10 @@
       </c>
     </row>
     <row r="37" spans="1:13">
-      <c r="A37" s="6"/>
-      <c r="B37" s="6"/>
-      <c r="C37" s="6"/>
-      <c r="D37" s="6"/>
+      <c r="A37" s="5"/>
+      <c r="B37" s="5"/>
+      <c r="C37" s="5"/>
+      <c r="D37" s="5"/>
       <c r="E37" t="s">
         <v>20</v>
       </c>
@@ -1513,14 +1534,14 @@
       </c>
     </row>
     <row r="38" spans="1:13">
-      <c r="A38" s="6"/>
-      <c r="B38" s="6" t="s">
+      <c r="A38" s="5"/>
+      <c r="B38" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="C38" s="5">
+      <c r="C38" s="6">
         <v>46002</v>
       </c>
-      <c r="D38" s="6"/>
+      <c r="D38" s="5"/>
       <c r="E38" t="s">
         <v>20</v>
       </c>
@@ -1535,10 +1556,10 @@
       </c>
     </row>
     <row r="39" spans="1:13">
-      <c r="A39" s="6"/>
-      <c r="B39" s="6"/>
-      <c r="C39" s="5"/>
-      <c r="D39" s="6"/>
+      <c r="A39" s="5"/>
+      <c r="B39" s="5"/>
+      <c r="C39" s="6"/>
+      <c r="D39" s="5"/>
       <c r="E39" t="s">
         <v>20</v>
       </c>
@@ -1553,10 +1574,10 @@
       </c>
     </row>
     <row r="40" spans="1:13">
-      <c r="A40" s="6"/>
-      <c r="B40" s="6"/>
-      <c r="C40" s="5"/>
-      <c r="D40" s="6"/>
+      <c r="A40" s="5"/>
+      <c r="B40" s="5"/>
+      <c r="C40" s="6"/>
+      <c r="D40" s="5"/>
       <c r="E40" t="s">
         <v>20</v>
       </c>
@@ -1571,1182 +1592,1206 @@
       </c>
     </row>
     <row r="41" spans="1:13">
-      <c r="A41" s="6"/>
-      <c r="B41" s="6" t="s">
+      <c r="A41" s="5"/>
+      <c r="B41" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="C41" s="5" t="s">
+      <c r="C41" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="D41" s="5"/>
+      <c r="E41" t="s">
+        <v>20</v>
+      </c>
+      <c r="H41" t="s">
+        <v>21</v>
+      </c>
+      <c r="J41" t="s">
+        <v>20</v>
+      </c>
+      <c r="M41" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="42" spans="1:13">
+      <c r="A42" s="5"/>
+      <c r="B42" s="5"/>
+      <c r="C42" s="5"/>
+      <c r="D42" s="5"/>
+      <c r="E42" t="s">
+        <v>54</v>
+      </c>
+      <c r="F42" t="s">
+        <v>55</v>
+      </c>
+      <c r="G42" s="3">
+        <v>0.3</v>
+      </c>
+      <c r="H42" t="s">
+        <v>24</v>
+      </c>
+      <c r="J42" t="s">
+        <v>20</v>
+      </c>
+      <c r="M42" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="43" spans="1:13">
+      <c r="A43" s="5"/>
+      <c r="B43" s="5"/>
+      <c r="C43" s="5"/>
+      <c r="D43" s="5"/>
+      <c r="E43" t="s">
+        <v>20</v>
+      </c>
+      <c r="H43" t="s">
+        <v>21</v>
+      </c>
+      <c r="J43" t="s">
+        <v>20</v>
+      </c>
+      <c r="M43" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="44" spans="1:13">
+      <c r="A44" s="5"/>
+      <c r="B44" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="C44" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="D44" s="5"/>
+      <c r="E44" t="s">
+        <v>20</v>
+      </c>
+      <c r="H44" t="s">
+        <v>21</v>
+      </c>
+      <c r="J44" t="s">
+        <v>20</v>
+      </c>
+      <c r="M44" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="45" spans="1:13">
+      <c r="A45" s="5"/>
+      <c r="B45" s="5"/>
+      <c r="C45" s="6"/>
+      <c r="D45" s="5"/>
+      <c r="E45" t="s">
+        <v>20</v>
+      </c>
+      <c r="H45" t="s">
+        <v>21</v>
+      </c>
+      <c r="J45" t="s">
+        <v>20</v>
+      </c>
+      <c r="M45" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="46" spans="1:13">
+      <c r="A46" s="5"/>
+      <c r="B46" s="5"/>
+      <c r="C46" s="6"/>
+      <c r="D46" s="5"/>
+      <c r="E46" t="s">
+        <v>20</v>
+      </c>
+      <c r="H46" t="s">
+        <v>21</v>
+      </c>
+      <c r="J46" t="s">
+        <v>20</v>
+      </c>
+      <c r="M46" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="47" spans="1:13">
+      <c r="A47" s="5">
+        <v>4</v>
+      </c>
+      <c r="B47" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C47" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="D47" s="5"/>
+      <c r="E47" t="s">
+        <v>20</v>
+      </c>
+      <c r="H47" t="s">
+        <v>21</v>
+      </c>
+      <c r="J47" t="s">
+        <v>20</v>
+      </c>
+      <c r="M47" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="48" spans="1:13">
+      <c r="A48" s="5"/>
+      <c r="B48" s="5"/>
+      <c r="C48" s="5"/>
+      <c r="D48" s="5"/>
+      <c r="E48" t="s">
+        <v>20</v>
+      </c>
+      <c r="H48" t="s">
+        <v>21</v>
+      </c>
+      <c r="J48" t="s">
+        <v>20</v>
+      </c>
+      <c r="M48" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="49" spans="1:13">
+      <c r="A49" s="5"/>
+      <c r="B49" s="5"/>
+      <c r="C49" s="5"/>
+      <c r="D49" s="5"/>
+      <c r="E49" t="s">
+        <v>58</v>
+      </c>
+      <c r="F49" t="s">
+        <v>59</v>
+      </c>
+      <c r="G49" s="3">
+        <v>0.12</v>
+      </c>
+      <c r="H49" t="s">
+        <v>26</v>
+      </c>
+      <c r="J49" t="s">
+        <v>20</v>
+      </c>
+      <c r="M49" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="50" spans="1:13">
+      <c r="A50" s="5"/>
+      <c r="B50" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="C50" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="D50" s="5"/>
+      <c r="E50" t="s">
+        <v>20</v>
+      </c>
+      <c r="H50" t="s">
+        <v>21</v>
+      </c>
+      <c r="J50" t="s">
+        <v>20</v>
+      </c>
+      <c r="M50" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="51" spans="1:13">
+      <c r="A51" s="5"/>
+      <c r="B51" s="5"/>
+      <c r="C51" s="6"/>
+      <c r="D51" s="5"/>
+      <c r="E51" t="s">
+        <v>20</v>
+      </c>
+      <c r="H51" t="s">
+        <v>21</v>
+      </c>
+      <c r="J51" t="s">
+        <v>20</v>
+      </c>
+      <c r="M51" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="52" spans="1:13">
+      <c r="A52" s="5"/>
+      <c r="B52" s="5"/>
+      <c r="C52" s="6"/>
+      <c r="D52" s="5"/>
+      <c r="E52" t="s">
+        <v>20</v>
+      </c>
+      <c r="H52" t="s">
+        <v>21</v>
+      </c>
+      <c r="J52" t="s">
+        <v>20</v>
+      </c>
+      <c r="M52" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="53" spans="1:13">
+      <c r="A53" s="5"/>
+      <c r="B53" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="C53" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="D53" s="5"/>
+      <c r="E53" t="s">
+        <v>20</v>
+      </c>
+      <c r="H53" t="s">
+        <v>21</v>
+      </c>
+      <c r="J53" t="s">
+        <v>20</v>
+      </c>
+      <c r="M53" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="54" spans="1:13">
+      <c r="A54" s="5"/>
+      <c r="B54" s="5"/>
+      <c r="C54" s="5"/>
+      <c r="D54" s="5"/>
+      <c r="E54" t="s">
+        <v>20</v>
+      </c>
+      <c r="H54" t="s">
+        <v>21</v>
+      </c>
+      <c r="J54" t="s">
+        <v>20</v>
+      </c>
+      <c r="M54" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="55" spans="1:13">
+      <c r="A55" s="5"/>
+      <c r="B55" s="5"/>
+      <c r="C55" s="5"/>
+      <c r="D55" s="5"/>
+      <c r="E55" t="s">
+        <v>20</v>
+      </c>
+      <c r="H55" t="s">
+        <v>21</v>
+      </c>
+      <c r="J55" t="s">
+        <v>20</v>
+      </c>
+      <c r="M55" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="56" spans="1:13">
+      <c r="A56" s="5"/>
+      <c r="B56" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="C56" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="D56" s="5"/>
+      <c r="E56" t="s">
+        <v>20</v>
+      </c>
+      <c r="H56" t="s">
+        <v>21</v>
+      </c>
+      <c r="J56" t="s">
+        <v>20</v>
+      </c>
+      <c r="M56" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="57" spans="1:13">
+      <c r="A57" s="5"/>
+      <c r="B57" s="5"/>
+      <c r="C57" s="6"/>
+      <c r="D57" s="5"/>
+      <c r="E57" t="s">
+        <v>20</v>
+      </c>
+      <c r="H57" t="s">
+        <v>21</v>
+      </c>
+      <c r="J57" t="s">
+        <v>20</v>
+      </c>
+      <c r="M57" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="58" spans="1:13">
+      <c r="A58" s="5"/>
+      <c r="B58" s="5"/>
+      <c r="C58" s="6"/>
+      <c r="D58" s="5"/>
+      <c r="E58" t="s">
+        <v>20</v>
+      </c>
+      <c r="H58" t="s">
+        <v>21</v>
+      </c>
+      <c r="J58" t="s">
+        <v>20</v>
+      </c>
+      <c r="M58" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="59" spans="1:13">
+      <c r="A59" s="5"/>
+      <c r="B59" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="C59" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="D59" s="5"/>
+      <c r="E59" t="s">
+        <v>20</v>
+      </c>
+      <c r="H59" t="s">
+        <v>21</v>
+      </c>
+      <c r="J59" t="s">
+        <v>20</v>
+      </c>
+      <c r="M59" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="60" spans="1:13">
+      <c r="A60" s="5"/>
+      <c r="B60" s="5"/>
+      <c r="C60" s="5"/>
+      <c r="D60" s="5"/>
+      <c r="E60" t="s">
+        <v>20</v>
+      </c>
+      <c r="H60" t="s">
+        <v>21</v>
+      </c>
+      <c r="J60" t="s">
+        <v>20</v>
+      </c>
+      <c r="M60" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="61" spans="1:13">
+      <c r="A61" s="5"/>
+      <c r="B61" s="5"/>
+      <c r="C61" s="5"/>
+      <c r="D61" s="5"/>
+      <c r="E61" t="s">
+        <v>64</v>
+      </c>
+      <c r="F61" t="s">
+        <v>65</v>
+      </c>
+      <c r="G61" s="3">
+        <v>0.8</v>
+      </c>
+      <c r="H61" t="s">
         <v>51</v>
       </c>
-      <c r="D41" s="6"/>
-      <c r="E41" t="s">
-        <v>20</v>
-      </c>
-      <c r="H41" t="s">
-        <v>21</v>
-      </c>
-      <c r="J41" t="s">
-        <v>20</v>
-      </c>
-      <c r="M41" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="42" spans="1:13">
-      <c r="A42" s="6"/>
-      <c r="B42" s="6"/>
-      <c r="C42" s="6"/>
-      <c r="D42" s="6"/>
-      <c r="E42" t="s">
-        <v>20</v>
-      </c>
-      <c r="H42" t="s">
-        <v>21</v>
-      </c>
-      <c r="J42" t="s">
-        <v>20</v>
-      </c>
-      <c r="M42" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="43" spans="1:13">
-      <c r="A43" s="6"/>
-      <c r="B43" s="6"/>
-      <c r="C43" s="6"/>
-      <c r="D43" s="6"/>
-      <c r="E43" t="s">
-        <v>20</v>
-      </c>
-      <c r="H43" t="s">
-        <v>21</v>
-      </c>
-      <c r="J43" t="s">
-        <v>20</v>
-      </c>
-      <c r="M43" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="44" spans="1:13">
-      <c r="A44" s="6"/>
-      <c r="B44" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="C44" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="D44" s="6"/>
-      <c r="E44" t="s">
-        <v>20</v>
-      </c>
-      <c r="H44" t="s">
-        <v>21</v>
-      </c>
-      <c r="J44" t="s">
-        <v>20</v>
-      </c>
-      <c r="M44" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="45" spans="1:13">
-      <c r="A45" s="6"/>
-      <c r="B45" s="6"/>
-      <c r="C45" s="5"/>
-      <c r="D45" s="6"/>
-      <c r="E45" t="s">
-        <v>20</v>
-      </c>
-      <c r="H45" t="s">
-        <v>21</v>
-      </c>
-      <c r="J45" t="s">
-        <v>20</v>
-      </c>
-      <c r="M45" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="46" spans="1:13">
-      <c r="A46" s="6"/>
-      <c r="B46" s="6"/>
-      <c r="C46" s="5"/>
-      <c r="D46" s="6"/>
-      <c r="E46" t="s">
-        <v>20</v>
-      </c>
-      <c r="H46" t="s">
-        <v>21</v>
-      </c>
-      <c r="J46" t="s">
-        <v>20</v>
-      </c>
-      <c r="M46" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="47" spans="1:13">
-      <c r="A47" s="6">
-        <v>4</v>
-      </c>
-      <c r="B47" s="6" t="s">
+      <c r="J61" t="s">
+        <v>20</v>
+      </c>
+      <c r="M61" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="62" spans="1:13">
+      <c r="A62" s="5">
+        <v>5</v>
+      </c>
+      <c r="B62" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="C47" s="5" t="s">
-        <v>53</v>
-      </c>
-      <c r="D47" s="6"/>
-      <c r="E47" t="s">
-        <v>20</v>
-      </c>
-      <c r="H47" t="s">
-        <v>21</v>
-      </c>
-      <c r="J47" t="s">
-        <v>20</v>
-      </c>
-      <c r="M47" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="48" spans="1:13">
-      <c r="A48" s="6"/>
-      <c r="B48" s="6"/>
-      <c r="C48" s="6"/>
-      <c r="D48" s="6"/>
-      <c r="E48" t="s">
-        <v>20</v>
-      </c>
-      <c r="H48" t="s">
-        <v>21</v>
-      </c>
-      <c r="J48" t="s">
-        <v>20</v>
-      </c>
-      <c r="M48" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="49" spans="1:13">
-      <c r="A49" s="6"/>
-      <c r="B49" s="6"/>
-      <c r="C49" s="6"/>
-      <c r="D49" s="6"/>
-      <c r="E49" t="s">
-        <v>20</v>
-      </c>
-      <c r="H49" t="s">
-        <v>21</v>
-      </c>
-      <c r="J49" t="s">
-        <v>20</v>
-      </c>
-      <c r="M49" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="50" spans="1:13">
-      <c r="A50" s="6"/>
-      <c r="B50" s="6" t="s">
+      <c r="C62" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="D62" s="5"/>
+      <c r="E62" t="s">
+        <v>20</v>
+      </c>
+      <c r="H62" t="s">
+        <v>21</v>
+      </c>
+      <c r="J62" t="s">
+        <v>20</v>
+      </c>
+      <c r="M62" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="63" spans="1:13">
+      <c r="A63" s="5"/>
+      <c r="B63" s="5"/>
+      <c r="C63" s="6"/>
+      <c r="D63" s="5"/>
+      <c r="E63" t="s">
+        <v>20</v>
+      </c>
+      <c r="H63" t="s">
+        <v>21</v>
+      </c>
+      <c r="J63" t="s">
+        <v>20</v>
+      </c>
+      <c r="M63" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="64" spans="1:13">
+      <c r="A64" s="5"/>
+      <c r="B64" s="5"/>
+      <c r="C64" s="6"/>
+      <c r="D64" s="5"/>
+      <c r="E64" t="s">
+        <v>20</v>
+      </c>
+      <c r="H64" t="s">
+        <v>21</v>
+      </c>
+      <c r="J64" t="s">
+        <v>20</v>
+      </c>
+      <c r="M64" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="65" spans="1:13">
+      <c r="A65" s="5"/>
+      <c r="B65" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="C50" s="5" t="s">
-        <v>54</v>
-      </c>
-      <c r="D50" s="6"/>
-      <c r="E50" t="s">
-        <v>20</v>
-      </c>
-      <c r="H50" t="s">
-        <v>21</v>
-      </c>
-      <c r="J50" t="s">
-        <v>20</v>
-      </c>
-      <c r="M50" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="51" spans="1:13">
-      <c r="A51" s="6"/>
-      <c r="B51" s="6"/>
-      <c r="C51" s="5"/>
-      <c r="D51" s="6"/>
-      <c r="E51" t="s">
-        <v>20</v>
-      </c>
-      <c r="H51" t="s">
-        <v>21</v>
-      </c>
-      <c r="J51" t="s">
-        <v>20</v>
-      </c>
-      <c r="M51" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="52" spans="1:13">
-      <c r="A52" s="6"/>
-      <c r="B52" s="6"/>
-      <c r="C52" s="5"/>
-      <c r="D52" s="6"/>
-      <c r="E52" t="s">
-        <v>20</v>
-      </c>
-      <c r="H52" t="s">
-        <v>21</v>
-      </c>
-      <c r="J52" t="s">
-        <v>20</v>
-      </c>
-      <c r="M52" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="53" spans="1:13">
-      <c r="A53" s="6"/>
-      <c r="B53" s="6" t="s">
+      <c r="C65" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="D65" s="5"/>
+      <c r="E65" t="s">
+        <v>20</v>
+      </c>
+      <c r="H65" t="s">
+        <v>21</v>
+      </c>
+      <c r="J65" t="s">
+        <v>20</v>
+      </c>
+      <c r="M65" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="66" spans="1:13">
+      <c r="A66" s="5"/>
+      <c r="B66" s="5"/>
+      <c r="C66" s="5"/>
+      <c r="D66" s="5"/>
+      <c r="E66" t="s">
+        <v>20</v>
+      </c>
+      <c r="H66" t="s">
+        <v>21</v>
+      </c>
+      <c r="J66" t="s">
+        <v>20</v>
+      </c>
+      <c r="M66" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="67" spans="1:13">
+      <c r="A67" s="5"/>
+      <c r="B67" s="5"/>
+      <c r="C67" s="5"/>
+      <c r="D67" s="5"/>
+      <c r="E67" t="s">
+        <v>20</v>
+      </c>
+      <c r="H67" t="s">
+        <v>21</v>
+      </c>
+      <c r="J67" t="s">
+        <v>20</v>
+      </c>
+      <c r="M67" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="68" spans="1:13">
+      <c r="A68" s="5"/>
+      <c r="B68" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="C53" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="D53" s="6"/>
-      <c r="E53" t="s">
-        <v>20</v>
-      </c>
-      <c r="H53" t="s">
-        <v>21</v>
-      </c>
-      <c r="J53" t="s">
-        <v>20</v>
-      </c>
-      <c r="M53" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="54" spans="1:13">
-      <c r="A54" s="6"/>
-      <c r="B54" s="6"/>
-      <c r="C54" s="6"/>
-      <c r="D54" s="6"/>
-      <c r="E54" t="s">
-        <v>20</v>
-      </c>
-      <c r="H54" t="s">
-        <v>21</v>
-      </c>
-      <c r="J54" t="s">
-        <v>20</v>
-      </c>
-      <c r="M54" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="55" spans="1:13">
-      <c r="A55" s="6"/>
-      <c r="B55" s="6"/>
-      <c r="C55" s="6"/>
-      <c r="D55" s="6"/>
-      <c r="E55" t="s">
-        <v>20</v>
-      </c>
-      <c r="H55" t="s">
-        <v>21</v>
-      </c>
-      <c r="J55" t="s">
-        <v>20</v>
-      </c>
-      <c r="M55" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="56" spans="1:13">
-      <c r="A56" s="6"/>
-      <c r="B56" s="6" t="s">
+      <c r="C68" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="D68" s="5"/>
+      <c r="E68" t="s">
+        <v>20</v>
+      </c>
+      <c r="H68" t="s">
+        <v>21</v>
+      </c>
+      <c r="J68" t="s">
+        <v>20</v>
+      </c>
+      <c r="M68" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="69" spans="1:13">
+      <c r="A69" s="5"/>
+      <c r="B69" s="5"/>
+      <c r="C69" s="6"/>
+      <c r="D69" s="5"/>
+      <c r="E69" t="s">
+        <v>20</v>
+      </c>
+      <c r="H69" t="s">
+        <v>21</v>
+      </c>
+      <c r="J69" t="s">
+        <v>20</v>
+      </c>
+      <c r="M69" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="70" spans="1:13">
+      <c r="A70" s="5"/>
+      <c r="B70" s="5"/>
+      <c r="C70" s="6"/>
+      <c r="D70" s="5"/>
+      <c r="E70" t="s">
+        <v>20</v>
+      </c>
+      <c r="H70" t="s">
+        <v>21</v>
+      </c>
+      <c r="J70" t="s">
+        <v>20</v>
+      </c>
+      <c r="M70" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="71" spans="1:13">
+      <c r="A71" s="5"/>
+      <c r="B71" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="C56" s="5" t="s">
-        <v>56</v>
-      </c>
-      <c r="D56" s="6"/>
-      <c r="E56" t="s">
-        <v>20</v>
-      </c>
-      <c r="H56" t="s">
-        <v>21</v>
-      </c>
-      <c r="J56" t="s">
-        <v>20</v>
-      </c>
-      <c r="M56" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="57" spans="1:13">
-      <c r="A57" s="6"/>
-      <c r="B57" s="6"/>
-      <c r="C57" s="5"/>
-      <c r="D57" s="6"/>
-      <c r="E57" t="s">
-        <v>20</v>
-      </c>
-      <c r="H57" t="s">
-        <v>21</v>
-      </c>
-      <c r="J57" t="s">
-        <v>20</v>
-      </c>
-      <c r="M57" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="58" spans="1:13">
-      <c r="A58" s="6"/>
-      <c r="B58" s="6"/>
-      <c r="C58" s="5"/>
-      <c r="D58" s="6"/>
-      <c r="E58" t="s">
-        <v>20</v>
-      </c>
-      <c r="H58" t="s">
-        <v>21</v>
-      </c>
-      <c r="J58" t="s">
-        <v>20</v>
-      </c>
-      <c r="M58" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="59" spans="1:13">
-      <c r="A59" s="6"/>
-      <c r="B59" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="C59" s="5" t="s">
-        <v>57</v>
-      </c>
-      <c r="D59" s="6"/>
-      <c r="E59" t="s">
-        <v>20</v>
-      </c>
-      <c r="H59" t="s">
-        <v>21</v>
-      </c>
-      <c r="J59" t="s">
-        <v>20</v>
-      </c>
-      <c r="M59" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="60" spans="1:13">
-      <c r="A60" s="6"/>
-      <c r="B60" s="6"/>
-      <c r="C60" s="6"/>
-      <c r="D60" s="6"/>
-      <c r="E60" t="s">
-        <v>20</v>
-      </c>
-      <c r="H60" t="s">
-        <v>21</v>
-      </c>
-      <c r="J60" t="s">
-        <v>20</v>
-      </c>
-      <c r="M60" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="61" spans="1:13">
-      <c r="A61" s="6"/>
-      <c r="B61" s="6"/>
-      <c r="C61" s="6"/>
-      <c r="D61" s="6"/>
-      <c r="E61" t="s">
-        <v>20</v>
-      </c>
-      <c r="H61" t="s">
-        <v>21</v>
-      </c>
-      <c r="J61" t="s">
-        <v>20</v>
-      </c>
-      <c r="M61" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="62" spans="1:13">
-      <c r="A62" s="6">
-        <v>5</v>
-      </c>
-      <c r="B62" s="6" t="s">
+      <c r="C71" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="D71" s="5"/>
+      <c r="E71" t="s">
+        <v>20</v>
+      </c>
+      <c r="H71" t="s">
+        <v>21</v>
+      </c>
+      <c r="J71" t="s">
+        <v>20</v>
+      </c>
+      <c r="M71" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="72" spans="1:13">
+      <c r="A72" s="5"/>
+      <c r="B72" s="5"/>
+      <c r="C72" s="5"/>
+      <c r="D72" s="5"/>
+      <c r="E72" t="s">
+        <v>70</v>
+      </c>
+      <c r="F72" t="s">
+        <v>71</v>
+      </c>
+      <c r="G72" s="3">
+        <v>0.15</v>
+      </c>
+      <c r="H72" t="s">
+        <v>45</v>
+      </c>
+      <c r="J72" t="s">
+        <v>20</v>
+      </c>
+      <c r="M72" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="73" spans="1:13">
+      <c r="A73" s="5"/>
+      <c r="B73" s="5"/>
+      <c r="C73" s="5"/>
+      <c r="D73" s="5"/>
+      <c r="E73" t="s">
+        <v>20</v>
+      </c>
+      <c r="H73" t="s">
+        <v>21</v>
+      </c>
+      <c r="J73" t="s">
+        <v>20</v>
+      </c>
+      <c r="M73" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="74" spans="1:13">
+      <c r="A74" s="5"/>
+      <c r="B74" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="C74" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="D74" s="5"/>
+      <c r="E74" t="s">
+        <v>20</v>
+      </c>
+      <c r="H74" t="s">
+        <v>21</v>
+      </c>
+      <c r="J74" t="s">
+        <v>20</v>
+      </c>
+      <c r="M74" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="75" spans="1:13">
+      <c r="A75" s="5"/>
+      <c r="B75" s="5"/>
+      <c r="C75" s="6"/>
+      <c r="D75" s="5"/>
+      <c r="E75" t="s">
+        <v>20</v>
+      </c>
+      <c r="H75" t="s">
+        <v>21</v>
+      </c>
+      <c r="J75" t="s">
+        <v>20</v>
+      </c>
+      <c r="M75" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="76" spans="1:13">
+      <c r="A76" s="5"/>
+      <c r="B76" s="5"/>
+      <c r="C76" s="6"/>
+      <c r="D76" s="5"/>
+      <c r="E76" t="s">
+        <v>20</v>
+      </c>
+      <c r="H76" t="s">
+        <v>21</v>
+      </c>
+      <c r="J76" t="s">
+        <v>20</v>
+      </c>
+      <c r="M76" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="77" spans="1:13">
+      <c r="A77" s="5">
+        <v>6</v>
+      </c>
+      <c r="B77" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="C62" s="5" t="s">
-        <v>58</v>
-      </c>
-      <c r="D62" s="6"/>
-      <c r="E62" t="s">
-        <v>20</v>
-      </c>
-      <c r="H62" t="s">
-        <v>21</v>
-      </c>
-      <c r="J62" t="s">
-        <v>20</v>
-      </c>
-      <c r="M62" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="63" spans="1:13">
-      <c r="A63" s="6"/>
-      <c r="B63" s="6"/>
-      <c r="C63" s="5"/>
-      <c r="D63" s="6"/>
-      <c r="E63" t="s">
-        <v>20</v>
-      </c>
-      <c r="H63" t="s">
-        <v>21</v>
-      </c>
-      <c r="J63" t="s">
-        <v>20</v>
-      </c>
-      <c r="M63" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="64" spans="1:13">
-      <c r="A64" s="6"/>
-      <c r="B64" s="6"/>
-      <c r="C64" s="5"/>
-      <c r="D64" s="6"/>
-      <c r="E64" t="s">
-        <v>20</v>
-      </c>
-      <c r="H64" t="s">
-        <v>21</v>
-      </c>
-      <c r="J64" t="s">
-        <v>20</v>
-      </c>
-      <c r="M64" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="65" spans="1:13">
-      <c r="A65" s="6"/>
-      <c r="B65" s="6" t="s">
+      <c r="C77" s="6">
+        <v>45669</v>
+      </c>
+      <c r="D77" s="5"/>
+      <c r="E77" t="s">
+        <v>20</v>
+      </c>
+      <c r="H77" t="s">
+        <v>21</v>
+      </c>
+      <c r="J77" t="s">
+        <v>20</v>
+      </c>
+      <c r="M77" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="78" spans="1:13">
+      <c r="A78" s="5"/>
+      <c r="B78" s="5"/>
+      <c r="C78" s="5"/>
+      <c r="D78" s="5"/>
+      <c r="E78" t="s">
+        <v>20</v>
+      </c>
+      <c r="H78" t="s">
+        <v>21</v>
+      </c>
+      <c r="J78" t="s">
+        <v>20</v>
+      </c>
+      <c r="M78" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="79" spans="1:13">
+      <c r="A79" s="5"/>
+      <c r="B79" s="5"/>
+      <c r="C79" s="5"/>
+      <c r="D79" s="5"/>
+      <c r="E79" t="s">
+        <v>20</v>
+      </c>
+      <c r="H79" t="s">
+        <v>21</v>
+      </c>
+      <c r="J79" t="s">
+        <v>20</v>
+      </c>
+      <c r="M79" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="80" spans="1:13">
+      <c r="A80" s="5"/>
+      <c r="B80" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="C65" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="D65" s="6"/>
-      <c r="E65" t="s">
-        <v>20</v>
-      </c>
-      <c r="H65" t="s">
-        <v>21</v>
-      </c>
-      <c r="J65" t="s">
-        <v>20</v>
-      </c>
-      <c r="M65" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="66" spans="1:13">
-      <c r="A66" s="6"/>
-      <c r="B66" s="6"/>
-      <c r="C66" s="6"/>
-      <c r="D66" s="6"/>
-      <c r="E66" t="s">
-        <v>20</v>
-      </c>
-      <c r="H66" t="s">
-        <v>21</v>
-      </c>
-      <c r="J66" t="s">
-        <v>20</v>
-      </c>
-      <c r="M66" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="67" spans="1:13">
-      <c r="A67" s="6"/>
-      <c r="B67" s="6"/>
-      <c r="C67" s="6"/>
-      <c r="D67" s="6"/>
-      <c r="E67" t="s">
-        <v>20</v>
-      </c>
-      <c r="H67" t="s">
-        <v>21</v>
-      </c>
-      <c r="J67" t="s">
-        <v>20</v>
-      </c>
-      <c r="M67" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="68" spans="1:13">
-      <c r="A68" s="6"/>
-      <c r="B68" s="6" t="s">
+      <c r="C80" s="6">
+        <v>45700</v>
+      </c>
+      <c r="D80" s="5"/>
+      <c r="E80" t="s">
+        <v>20</v>
+      </c>
+      <c r="H80" t="s">
+        <v>21</v>
+      </c>
+      <c r="J80" t="s">
+        <v>20</v>
+      </c>
+      <c r="M80" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="81" spans="1:13">
+      <c r="A81" s="5"/>
+      <c r="B81" s="5"/>
+      <c r="C81" s="6"/>
+      <c r="D81" s="5"/>
+      <c r="E81" t="s">
+        <v>20</v>
+      </c>
+      <c r="H81" t="s">
+        <v>21</v>
+      </c>
+      <c r="J81" t="s">
+        <v>20</v>
+      </c>
+      <c r="M81" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="82" spans="1:13">
+      <c r="A82" s="5"/>
+      <c r="B82" s="5"/>
+      <c r="C82" s="6"/>
+      <c r="D82" s="5"/>
+      <c r="E82" t="s">
+        <v>20</v>
+      </c>
+      <c r="H82" t="s">
+        <v>21</v>
+      </c>
+      <c r="J82" t="s">
+        <v>20</v>
+      </c>
+      <c r="M82" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="83" spans="1:13">
+      <c r="A83" s="5"/>
+      <c r="B83" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="C68" s="5" t="s">
-        <v>60</v>
-      </c>
-      <c r="D68" s="6"/>
-      <c r="E68" t="s">
-        <v>20</v>
-      </c>
-      <c r="H68" t="s">
-        <v>21</v>
-      </c>
-      <c r="J68" t="s">
-        <v>20</v>
-      </c>
-      <c r="M68" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="69" spans="1:13">
-      <c r="A69" s="6"/>
-      <c r="B69" s="6"/>
-      <c r="C69" s="5"/>
-      <c r="D69" s="6"/>
-      <c r="E69" t="s">
-        <v>20</v>
-      </c>
-      <c r="H69" t="s">
-        <v>21</v>
-      </c>
-      <c r="J69" t="s">
-        <v>20</v>
-      </c>
-      <c r="M69" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="70" spans="1:13">
-      <c r="A70" s="6"/>
-      <c r="B70" s="6"/>
-      <c r="C70" s="5"/>
-      <c r="D70" s="6"/>
-      <c r="E70" t="s">
-        <v>20</v>
-      </c>
-      <c r="H70" t="s">
-        <v>21</v>
-      </c>
-      <c r="J70" t="s">
-        <v>20</v>
-      </c>
-      <c r="M70" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="71" spans="1:13">
-      <c r="A71" s="6"/>
-      <c r="B71" s="6" t="s">
+      <c r="C83" s="6">
+        <v>45728</v>
+      </c>
+      <c r="D83" s="5"/>
+      <c r="E83" t="s">
+        <v>20</v>
+      </c>
+      <c r="H83" t="s">
+        <v>21</v>
+      </c>
+      <c r="J83" t="s">
+        <v>20</v>
+      </c>
+      <c r="M83" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="84" spans="1:13">
+      <c r="A84" s="5"/>
+      <c r="B84" s="5"/>
+      <c r="C84" s="5"/>
+      <c r="D84" s="5"/>
+      <c r="E84" t="s">
+        <v>20</v>
+      </c>
+      <c r="H84" t="s">
+        <v>21</v>
+      </c>
+      <c r="J84" t="s">
+        <v>20</v>
+      </c>
+      <c r="M84" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="85" spans="1:13">
+      <c r="A85" s="5"/>
+      <c r="B85" s="5"/>
+      <c r="C85" s="5"/>
+      <c r="D85" s="5"/>
+      <c r="E85" t="s">
+        <v>20</v>
+      </c>
+      <c r="H85" t="s">
+        <v>21</v>
+      </c>
+      <c r="J85" t="s">
+        <v>20</v>
+      </c>
+      <c r="M85" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="86" spans="1:13">
+      <c r="A86" s="5"/>
+      <c r="B86" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="C71" s="5" t="s">
-        <v>61</v>
-      </c>
-      <c r="D71" s="6"/>
-      <c r="E71" t="s">
-        <v>20</v>
-      </c>
-      <c r="H71" t="s">
-        <v>21</v>
-      </c>
-      <c r="J71" t="s">
-        <v>20</v>
-      </c>
-      <c r="M71" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="72" spans="1:13">
-      <c r="A72" s="6"/>
-      <c r="B72" s="6"/>
-      <c r="C72" s="6"/>
-      <c r="D72" s="6"/>
-      <c r="E72" t="s">
-        <v>20</v>
-      </c>
-      <c r="H72" t="s">
-        <v>21</v>
-      </c>
-      <c r="J72" t="s">
-        <v>20</v>
-      </c>
-      <c r="M72" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="73" spans="1:13">
-      <c r="A73" s="6"/>
-      <c r="B73" s="6"/>
-      <c r="C73" s="6"/>
-      <c r="D73" s="6"/>
-      <c r="E73" t="s">
-        <v>20</v>
-      </c>
-      <c r="H73" t="s">
-        <v>21</v>
-      </c>
-      <c r="J73" t="s">
-        <v>20</v>
-      </c>
-      <c r="M73" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="74" spans="1:13">
-      <c r="A74" s="6"/>
-      <c r="B74" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="C74" s="5" t="s">
-        <v>62</v>
-      </c>
-      <c r="D74" s="6"/>
-      <c r="E74" t="s">
-        <v>20</v>
-      </c>
-      <c r="H74" t="s">
-        <v>21</v>
-      </c>
-      <c r="J74" t="s">
-        <v>20</v>
-      </c>
-      <c r="M74" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="75" spans="1:13">
-      <c r="A75" s="6"/>
-      <c r="B75" s="6"/>
-      <c r="C75" s="5"/>
-      <c r="D75" s="6"/>
-      <c r="E75" t="s">
-        <v>20</v>
-      </c>
-      <c r="H75" t="s">
-        <v>21</v>
-      </c>
-      <c r="J75" t="s">
-        <v>20</v>
-      </c>
-      <c r="M75" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="76" spans="1:13">
-      <c r="A76" s="6"/>
-      <c r="B76" s="6"/>
-      <c r="C76" s="5"/>
-      <c r="D76" s="6"/>
-      <c r="E76" t="s">
-        <v>20</v>
-      </c>
-      <c r="H76" t="s">
-        <v>21</v>
-      </c>
-      <c r="J76" t="s">
-        <v>20</v>
-      </c>
-      <c r="M76" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="77" spans="1:13">
-      <c r="A77" s="6">
-        <v>6</v>
-      </c>
-      <c r="B77" s="6" t="s">
+      <c r="C86" s="6">
+        <v>45759</v>
+      </c>
+      <c r="D86" s="5"/>
+      <c r="E86" t="s">
+        <v>20</v>
+      </c>
+      <c r="H86" t="s">
+        <v>21</v>
+      </c>
+      <c r="J86" t="s">
+        <v>20</v>
+      </c>
+      <c r="M86" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="87" spans="1:13">
+      <c r="A87" s="5"/>
+      <c r="B87" s="5"/>
+      <c r="C87" s="6"/>
+      <c r="D87" s="5"/>
+      <c r="E87" t="s">
+        <v>20</v>
+      </c>
+      <c r="H87" t="s">
+        <v>21</v>
+      </c>
+      <c r="J87" t="s">
+        <v>20</v>
+      </c>
+      <c r="M87" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="88" spans="1:13">
+      <c r="A88" s="5"/>
+      <c r="B88" s="5"/>
+      <c r="C88" s="6"/>
+      <c r="D88" s="5"/>
+      <c r="E88" t="s">
+        <v>20</v>
+      </c>
+      <c r="H88" t="s">
+        <v>21</v>
+      </c>
+      <c r="J88" t="s">
+        <v>20</v>
+      </c>
+      <c r="M88" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="89" spans="1:13">
+      <c r="A89" s="5"/>
+      <c r="B89" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="C89" s="6">
+        <v>45789</v>
+      </c>
+      <c r="D89" s="5"/>
+      <c r="E89" t="s">
+        <v>20</v>
+      </c>
+      <c r="H89" t="s">
+        <v>21</v>
+      </c>
+      <c r="J89" t="s">
+        <v>20</v>
+      </c>
+      <c r="M89" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="90" spans="1:13">
+      <c r="A90" s="5"/>
+      <c r="B90" s="5"/>
+      <c r="C90" s="5"/>
+      <c r="D90" s="5"/>
+      <c r="E90" t="s">
+        <v>20</v>
+      </c>
+      <c r="H90" t="s">
+        <v>21</v>
+      </c>
+      <c r="J90" t="s">
+        <v>20</v>
+      </c>
+      <c r="M90" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="91" spans="1:13">
+      <c r="A91" s="5"/>
+      <c r="B91" s="5"/>
+      <c r="C91" s="5"/>
+      <c r="D91" s="5"/>
+      <c r="E91" t="s">
+        <v>20</v>
+      </c>
+      <c r="H91" t="s">
+        <v>21</v>
+      </c>
+      <c r="J91" t="s">
+        <v>20</v>
+      </c>
+      <c r="M91" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="92" spans="1:13">
+      <c r="A92" s="5">
+        <v>7</v>
+      </c>
+      <c r="B92" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="C77" s="5">
-        <v>45669</v>
-      </c>
-      <c r="D77" s="6"/>
-      <c r="E77" t="s">
-        <v>20</v>
-      </c>
-      <c r="H77" t="s">
-        <v>21</v>
-      </c>
-      <c r="J77" t="s">
-        <v>20</v>
-      </c>
-      <c r="M77" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="78" spans="1:13">
-      <c r="A78" s="6"/>
-      <c r="B78" s="6"/>
-      <c r="C78" s="6"/>
-      <c r="D78" s="6"/>
-      <c r="E78" t="s">
-        <v>20</v>
-      </c>
-      <c r="H78" t="s">
-        <v>21</v>
-      </c>
-      <c r="J78" t="s">
-        <v>20</v>
-      </c>
-      <c r="M78" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="79" spans="1:13">
-      <c r="A79" s="6"/>
-      <c r="B79" s="6"/>
-      <c r="C79" s="6"/>
-      <c r="D79" s="6"/>
-      <c r="E79" t="s">
-        <v>20</v>
-      </c>
-      <c r="H79" t="s">
-        <v>21</v>
-      </c>
-      <c r="J79" t="s">
-        <v>20</v>
-      </c>
-      <c r="M79" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="80" spans="1:13">
-      <c r="A80" s="6"/>
-      <c r="B80" s="6" t="s">
+      <c r="C92" s="6">
+        <v>45912</v>
+      </c>
+      <c r="D92" s="5"/>
+      <c r="E92" t="s">
+        <v>20</v>
+      </c>
+      <c r="H92" t="s">
+        <v>21</v>
+      </c>
+      <c r="J92" t="s">
+        <v>20</v>
+      </c>
+      <c r="M92" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="93" spans="1:13">
+      <c r="A93" s="5"/>
+      <c r="B93" s="5"/>
+      <c r="C93" s="6"/>
+      <c r="D93" s="5"/>
+      <c r="E93" t="s">
+        <v>20</v>
+      </c>
+      <c r="H93" t="s">
+        <v>21</v>
+      </c>
+      <c r="J93" t="s">
+        <v>20</v>
+      </c>
+      <c r="M93" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="94" spans="1:13">
+      <c r="A94" s="5"/>
+      <c r="B94" s="5"/>
+      <c r="C94" s="6"/>
+      <c r="D94" s="5"/>
+      <c r="E94" t="s">
+        <v>20</v>
+      </c>
+      <c r="H94" t="s">
+        <v>21</v>
+      </c>
+      <c r="J94" t="s">
+        <v>20</v>
+      </c>
+      <c r="M94" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="95" spans="1:13">
+      <c r="A95" s="5"/>
+      <c r="B95" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="C80" s="5">
-        <v>45700</v>
-      </c>
-      <c r="D80" s="6"/>
-      <c r="E80" t="s">
-        <v>20</v>
-      </c>
-      <c r="H80" t="s">
-        <v>21</v>
-      </c>
-      <c r="J80" t="s">
-        <v>20</v>
-      </c>
-      <c r="M80" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="81" spans="1:13">
-      <c r="A81" s="6"/>
-      <c r="B81" s="6"/>
-      <c r="C81" s="5"/>
-      <c r="D81" s="6"/>
-      <c r="E81" t="s">
-        <v>20</v>
-      </c>
-      <c r="H81" t="s">
-        <v>21</v>
-      </c>
-      <c r="J81" t="s">
-        <v>20</v>
-      </c>
-      <c r="M81" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="82" spans="1:13">
-      <c r="A82" s="6"/>
-      <c r="B82" s="6"/>
-      <c r="C82" s="5"/>
-      <c r="D82" s="6"/>
-      <c r="E82" t="s">
-        <v>20</v>
-      </c>
-      <c r="H82" t="s">
-        <v>21</v>
-      </c>
-      <c r="J82" t="s">
-        <v>20</v>
-      </c>
-      <c r="M82" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="83" spans="1:13">
-      <c r="A83" s="6"/>
-      <c r="B83" s="6" t="s">
+      <c r="C95" s="6">
+        <v>45942</v>
+      </c>
+      <c r="D95" s="5"/>
+      <c r="E95" t="s">
+        <v>20</v>
+      </c>
+      <c r="H95" t="s">
+        <v>21</v>
+      </c>
+      <c r="J95" t="s">
+        <v>20</v>
+      </c>
+      <c r="M95" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="96" spans="1:13">
+      <c r="A96" s="5"/>
+      <c r="B96" s="5"/>
+      <c r="C96" s="5"/>
+      <c r="D96" s="5"/>
+      <c r="E96" t="s">
+        <v>20</v>
+      </c>
+      <c r="H96" t="s">
+        <v>21</v>
+      </c>
+      <c r="J96" t="s">
+        <v>20</v>
+      </c>
+      <c r="M96" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="97" spans="1:13">
+      <c r="A97" s="5"/>
+      <c r="B97" s="5"/>
+      <c r="C97" s="5"/>
+      <c r="D97" s="5"/>
+      <c r="E97" t="s">
+        <v>20</v>
+      </c>
+      <c r="H97" t="s">
+        <v>21</v>
+      </c>
+      <c r="J97" t="s">
+        <v>20</v>
+      </c>
+      <c r="M97" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="98" spans="1:13">
+      <c r="A98" s="5"/>
+      <c r="B98" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="C83" s="5">
-        <v>45728</v>
-      </c>
-      <c r="D83" s="6"/>
-      <c r="E83" t="s">
-        <v>20</v>
-      </c>
-      <c r="H83" t="s">
-        <v>21</v>
-      </c>
-      <c r="J83" t="s">
-        <v>20</v>
-      </c>
-      <c r="M83" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="84" spans="1:13">
-      <c r="A84" s="6"/>
-      <c r="B84" s="6"/>
-      <c r="C84" s="6"/>
-      <c r="D84" s="6"/>
-      <c r="E84" t="s">
-        <v>20</v>
-      </c>
-      <c r="H84" t="s">
-        <v>21</v>
-      </c>
-      <c r="J84" t="s">
-        <v>20</v>
-      </c>
-      <c r="M84" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="85" spans="1:13">
-      <c r="A85" s="6"/>
-      <c r="B85" s="6"/>
-      <c r="C85" s="6"/>
-      <c r="D85" s="6"/>
-      <c r="E85" t="s">
-        <v>20</v>
-      </c>
-      <c r="H85" t="s">
-        <v>21</v>
-      </c>
-      <c r="J85" t="s">
-        <v>20</v>
-      </c>
-      <c r="M85" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="86" spans="1:13">
-      <c r="A86" s="6"/>
-      <c r="B86" s="6" t="s">
+      <c r="C98" s="6">
+        <v>45973</v>
+      </c>
+      <c r="D98" s="5"/>
+      <c r="E98" t="s">
+        <v>20</v>
+      </c>
+      <c r="H98" t="s">
+        <v>21</v>
+      </c>
+      <c r="J98" t="s">
+        <v>20</v>
+      </c>
+      <c r="M98" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="99" spans="1:13">
+      <c r="A99" s="5"/>
+      <c r="B99" s="5"/>
+      <c r="C99" s="6"/>
+      <c r="D99" s="5"/>
+      <c r="E99" t="s">
+        <v>20</v>
+      </c>
+      <c r="H99" t="s">
+        <v>21</v>
+      </c>
+      <c r="J99" t="s">
+        <v>20</v>
+      </c>
+      <c r="M99" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="100" spans="1:13">
+      <c r="A100" s="5"/>
+      <c r="B100" s="5"/>
+      <c r="C100" s="6"/>
+      <c r="D100" s="5"/>
+      <c r="E100" t="s">
+        <v>20</v>
+      </c>
+      <c r="H100" t="s">
+        <v>21</v>
+      </c>
+      <c r="J100" t="s">
+        <v>20</v>
+      </c>
+      <c r="M100" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="101" spans="1:13">
+      <c r="A101" s="5"/>
+      <c r="B101" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="C86" s="5">
-        <v>45759</v>
-      </c>
-      <c r="D86" s="6"/>
-      <c r="E86" t="s">
-        <v>20</v>
-      </c>
-      <c r="H86" t="s">
-        <v>21</v>
-      </c>
-      <c r="J86" t="s">
-        <v>20</v>
-      </c>
-      <c r="M86" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="87" spans="1:13">
-      <c r="A87" s="6"/>
-      <c r="B87" s="6"/>
-      <c r="C87" s="5"/>
-      <c r="D87" s="6"/>
-      <c r="E87" t="s">
-        <v>20</v>
-      </c>
-      <c r="H87" t="s">
-        <v>21</v>
-      </c>
-      <c r="J87" t="s">
-        <v>20</v>
-      </c>
-      <c r="M87" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="88" spans="1:13">
-      <c r="A88" s="6"/>
-      <c r="B88" s="6"/>
-      <c r="C88" s="5"/>
-      <c r="D88" s="6"/>
-      <c r="E88" t="s">
-        <v>20</v>
-      </c>
-      <c r="H88" t="s">
-        <v>21</v>
-      </c>
-      <c r="J88" t="s">
-        <v>20</v>
-      </c>
-      <c r="M88" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="89" spans="1:13">
-      <c r="A89" s="6"/>
-      <c r="B89" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="C89" s="5">
-        <v>45789</v>
-      </c>
-      <c r="D89" s="6"/>
-      <c r="E89" t="s">
-        <v>20</v>
-      </c>
-      <c r="H89" t="s">
-        <v>21</v>
-      </c>
-      <c r="J89" t="s">
-        <v>20</v>
-      </c>
-      <c r="M89" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="90" spans="1:13">
-      <c r="A90" s="6"/>
-      <c r="B90" s="6"/>
-      <c r="C90" s="6"/>
-      <c r="D90" s="6"/>
-      <c r="E90" t="s">
-        <v>20</v>
-      </c>
-      <c r="H90" t="s">
-        <v>21</v>
-      </c>
-      <c r="J90" t="s">
-        <v>20</v>
-      </c>
-      <c r="M90" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="91" spans="1:13">
-      <c r="A91" s="6"/>
-      <c r="B91" s="6"/>
-      <c r="C91" s="6"/>
-      <c r="D91" s="6"/>
-      <c r="E91" t="s">
-        <v>20</v>
-      </c>
-      <c r="H91" t="s">
-        <v>21</v>
-      </c>
-      <c r="J91" t="s">
-        <v>20</v>
-      </c>
-      <c r="M91" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="92" spans="1:13">
-      <c r="A92" s="6">
-        <v>7</v>
-      </c>
-      <c r="B92" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="C92" s="5">
-        <v>45912</v>
-      </c>
-      <c r="D92" s="6"/>
-      <c r="E92" t="s">
-        <v>20</v>
-      </c>
-      <c r="H92" t="s">
-        <v>21</v>
-      </c>
-      <c r="J92" t="s">
-        <v>20</v>
-      </c>
-      <c r="M92" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="93" spans="1:13">
-      <c r="A93" s="6"/>
-      <c r="B93" s="6"/>
-      <c r="C93" s="5"/>
-      <c r="D93" s="6"/>
-      <c r="E93" t="s">
-        <v>20</v>
-      </c>
-      <c r="H93" t="s">
-        <v>21</v>
-      </c>
-      <c r="J93" t="s">
-        <v>20</v>
-      </c>
-      <c r="M93" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="94" spans="1:13">
-      <c r="A94" s="6"/>
-      <c r="B94" s="6"/>
-      <c r="C94" s="5"/>
-      <c r="D94" s="6"/>
-      <c r="E94" t="s">
-        <v>20</v>
-      </c>
-      <c r="H94" t="s">
-        <v>21</v>
-      </c>
-      <c r="J94" t="s">
-        <v>20</v>
-      </c>
-      <c r="M94" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="95" spans="1:13">
-      <c r="A95" s="6"/>
-      <c r="B95" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="C95" s="5">
-        <v>45942</v>
-      </c>
-      <c r="D95" s="6"/>
-      <c r="E95" t="s">
-        <v>20</v>
-      </c>
-      <c r="H95" t="s">
-        <v>21</v>
-      </c>
-      <c r="J95" t="s">
-        <v>20</v>
-      </c>
-      <c r="M95" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="96" spans="1:13">
-      <c r="A96" s="6"/>
-      <c r="B96" s="6"/>
-      <c r="C96" s="6"/>
-      <c r="D96" s="6"/>
-      <c r="E96" t="s">
-        <v>20</v>
-      </c>
-      <c r="H96" t="s">
-        <v>21</v>
-      </c>
-      <c r="J96" t="s">
-        <v>20</v>
-      </c>
-      <c r="M96" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="97" spans="1:13">
-      <c r="A97" s="6"/>
-      <c r="B97" s="6"/>
-      <c r="C97" s="6"/>
-      <c r="D97" s="6"/>
-      <c r="E97" t="s">
-        <v>20</v>
-      </c>
-      <c r="H97" t="s">
-        <v>21</v>
-      </c>
-      <c r="J97" t="s">
-        <v>20</v>
-      </c>
-      <c r="M97" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="98" spans="1:13">
-      <c r="A98" s="6"/>
-      <c r="B98" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="C98" s="5">
-        <v>45973</v>
-      </c>
-      <c r="D98" s="6"/>
-      <c r="E98" t="s">
-        <v>20</v>
-      </c>
-      <c r="H98" t="s">
-        <v>21</v>
-      </c>
-      <c r="J98" t="s">
-        <v>20</v>
-      </c>
-      <c r="M98" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="99" spans="1:13">
-      <c r="A99" s="6"/>
-      <c r="B99" s="6"/>
-      <c r="C99" s="5"/>
-      <c r="D99" s="6"/>
-      <c r="E99" t="s">
-        <v>20</v>
-      </c>
-      <c r="H99" t="s">
-        <v>21</v>
-      </c>
-      <c r="J99" t="s">
-        <v>20</v>
-      </c>
-      <c r="M99" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="100" spans="1:13">
-      <c r="A100" s="6"/>
-      <c r="B100" s="6"/>
-      <c r="C100" s="5"/>
-      <c r="D100" s="6"/>
-      <c r="E100" t="s">
-        <v>20</v>
-      </c>
-      <c r="H100" t="s">
-        <v>21</v>
-      </c>
-      <c r="J100" t="s">
-        <v>20</v>
-      </c>
-      <c r="M100" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="101" spans="1:13">
-      <c r="A101" s="6"/>
-      <c r="B101" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="C101" s="5">
+      <c r="C101" s="6">
         <v>46003</v>
       </c>
-      <c r="D101" s="6"/>
+      <c r="D101" s="5"/>
       <c r="E101" t="s">
         <v>20</v>
       </c>
@@ -2761,10 +2806,10 @@
       </c>
     </row>
     <row r="102" spans="1:13">
-      <c r="A102" s="6"/>
-      <c r="B102" s="6"/>
-      <c r="C102" s="6"/>
-      <c r="D102" s="6"/>
+      <c r="A102" s="5"/>
+      <c r="B102" s="5"/>
+      <c r="C102" s="5"/>
+      <c r="D102" s="5"/>
       <c r="E102" t="s">
         <v>20</v>
       </c>
@@ -2779,10 +2824,10 @@
       </c>
     </row>
     <row r="103" spans="1:13">
-      <c r="A103" s="6"/>
-      <c r="B103" s="6"/>
-      <c r="C103" s="6"/>
-      <c r="D103" s="6"/>
+      <c r="A103" s="5"/>
+      <c r="B103" s="5"/>
+      <c r="C103" s="5"/>
+      <c r="D103" s="5"/>
       <c r="E103" t="s">
         <v>20</v>
       </c>
@@ -2797,14 +2842,14 @@
       </c>
     </row>
     <row r="104" spans="1:13">
-      <c r="A104" s="6"/>
-      <c r="B104" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="C104" s="5" t="s">
-        <v>63</v>
-      </c>
-      <c r="D104" s="6"/>
+      <c r="A104" s="5"/>
+      <c r="B104" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="C104" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="D104" s="5"/>
       <c r="E104" t="s">
         <v>20</v>
       </c>
@@ -2819,10 +2864,10 @@
       </c>
     </row>
     <row r="105" spans="1:13">
-      <c r="A105" s="6"/>
-      <c r="B105" s="6"/>
-      <c r="C105" s="5"/>
-      <c r="D105" s="6"/>
+      <c r="A105" s="5"/>
+      <c r="B105" s="5"/>
+      <c r="C105" s="6"/>
+      <c r="D105" s="5"/>
       <c r="E105" t="s">
         <v>20</v>
       </c>
@@ -2837,10 +2882,10 @@
       </c>
     </row>
     <row r="106" spans="1:13">
-      <c r="A106" s="6"/>
-      <c r="B106" s="6"/>
-      <c r="C106" s="5"/>
-      <c r="D106" s="6"/>
+      <c r="A106" s="5"/>
+      <c r="B106" s="5"/>
+      <c r="C106" s="6"/>
+      <c r="D106" s="5"/>
       <c r="E106" t="s">
         <v>20</v>
       </c>
@@ -2856,55 +2901,45 @@
     </row>
   </sheetData>
   <mergeCells count="112">
-    <mergeCell ref="D104:D106"/>
-    <mergeCell ref="D89:D91"/>
-    <mergeCell ref="A92:A106"/>
-    <mergeCell ref="B92:B94"/>
-    <mergeCell ref="C92:C94"/>
-    <mergeCell ref="D92:D94"/>
-    <mergeCell ref="B95:B97"/>
-    <mergeCell ref="C95:C97"/>
-    <mergeCell ref="D95:D97"/>
-    <mergeCell ref="B98:B100"/>
-    <mergeCell ref="C98:C100"/>
-    <mergeCell ref="D98:D100"/>
-    <mergeCell ref="B101:B103"/>
-    <mergeCell ref="C101:C103"/>
-    <mergeCell ref="D101:D103"/>
-    <mergeCell ref="B104:B106"/>
-    <mergeCell ref="C104:C106"/>
-    <mergeCell ref="D74:D76"/>
-    <mergeCell ref="A77:A91"/>
-    <mergeCell ref="B77:B79"/>
-    <mergeCell ref="C77:C79"/>
-    <mergeCell ref="D77:D79"/>
-    <mergeCell ref="B80:B82"/>
-    <mergeCell ref="C80:C82"/>
-    <mergeCell ref="D80:D82"/>
-    <mergeCell ref="B83:B85"/>
-    <mergeCell ref="C83:C85"/>
-    <mergeCell ref="D83:D85"/>
-    <mergeCell ref="B86:B88"/>
-    <mergeCell ref="C86:C88"/>
-    <mergeCell ref="D86:D88"/>
-    <mergeCell ref="B89:B91"/>
-    <mergeCell ref="C89:C91"/>
-    <mergeCell ref="D59:D61"/>
-    <mergeCell ref="A62:A76"/>
-    <mergeCell ref="B62:B64"/>
-    <mergeCell ref="C62:C64"/>
-    <mergeCell ref="D62:D64"/>
-    <mergeCell ref="B65:B67"/>
-    <mergeCell ref="C65:C67"/>
-    <mergeCell ref="D65:D67"/>
-    <mergeCell ref="B68:B70"/>
-    <mergeCell ref="C68:C70"/>
-    <mergeCell ref="D68:D70"/>
-    <mergeCell ref="B71:B73"/>
-    <mergeCell ref="C71:C73"/>
-    <mergeCell ref="D71:D73"/>
-    <mergeCell ref="B74:B76"/>
-    <mergeCell ref="C74:C76"/>
+    <mergeCell ref="D8:D10"/>
+    <mergeCell ref="D2:D4"/>
+    <mergeCell ref="B5:B7"/>
+    <mergeCell ref="C5:C7"/>
+    <mergeCell ref="D5:D7"/>
+    <mergeCell ref="B2:B4"/>
+    <mergeCell ref="C2:C4"/>
+    <mergeCell ref="A2:A16"/>
+    <mergeCell ref="A17:A31"/>
+    <mergeCell ref="B8:B10"/>
+    <mergeCell ref="C8:C10"/>
+    <mergeCell ref="B11:B13"/>
+    <mergeCell ref="B14:B16"/>
+    <mergeCell ref="C14:C16"/>
+    <mergeCell ref="B23:B25"/>
+    <mergeCell ref="B26:B28"/>
+    <mergeCell ref="B29:B31"/>
+    <mergeCell ref="C23:C25"/>
+    <mergeCell ref="C26:C28"/>
+    <mergeCell ref="C29:C31"/>
+    <mergeCell ref="C41:C43"/>
+    <mergeCell ref="C44:C46"/>
+    <mergeCell ref="B32:B34"/>
+    <mergeCell ref="B35:B37"/>
+    <mergeCell ref="B38:B40"/>
+    <mergeCell ref="B41:B43"/>
+    <mergeCell ref="B44:B46"/>
+    <mergeCell ref="D14:D16"/>
+    <mergeCell ref="D11:D13"/>
+    <mergeCell ref="C11:C13"/>
+    <mergeCell ref="B17:B19"/>
+    <mergeCell ref="B20:B22"/>
+    <mergeCell ref="C17:C19"/>
+    <mergeCell ref="C20:C22"/>
+    <mergeCell ref="D17:D19"/>
+    <mergeCell ref="D20:D22"/>
+    <mergeCell ref="D23:D25"/>
+    <mergeCell ref="D26:D28"/>
+    <mergeCell ref="D29:D31"/>
     <mergeCell ref="A32:A46"/>
     <mergeCell ref="A47:A61"/>
     <mergeCell ref="B47:B49"/>
@@ -2929,45 +2964,55 @@
     <mergeCell ref="C32:C34"/>
     <mergeCell ref="C35:C37"/>
     <mergeCell ref="C38:C40"/>
-    <mergeCell ref="C41:C43"/>
-    <mergeCell ref="C44:C46"/>
-    <mergeCell ref="B32:B34"/>
-    <mergeCell ref="B35:B37"/>
-    <mergeCell ref="B38:B40"/>
-    <mergeCell ref="B41:B43"/>
-    <mergeCell ref="B44:B46"/>
-    <mergeCell ref="D14:D16"/>
-    <mergeCell ref="D11:D13"/>
-    <mergeCell ref="C11:C13"/>
-    <mergeCell ref="B17:B19"/>
-    <mergeCell ref="B20:B22"/>
-    <mergeCell ref="C17:C19"/>
-    <mergeCell ref="C20:C22"/>
-    <mergeCell ref="D17:D19"/>
-    <mergeCell ref="D20:D22"/>
-    <mergeCell ref="D23:D25"/>
-    <mergeCell ref="D26:D28"/>
-    <mergeCell ref="D29:D31"/>
-    <mergeCell ref="D8:D10"/>
-    <mergeCell ref="D2:D4"/>
-    <mergeCell ref="B5:B7"/>
-    <mergeCell ref="C5:C7"/>
-    <mergeCell ref="D5:D7"/>
-    <mergeCell ref="B2:B4"/>
-    <mergeCell ref="C2:C4"/>
-    <mergeCell ref="A2:A16"/>
-    <mergeCell ref="A17:A31"/>
-    <mergeCell ref="B8:B10"/>
-    <mergeCell ref="C8:C10"/>
-    <mergeCell ref="B11:B13"/>
-    <mergeCell ref="B14:B16"/>
-    <mergeCell ref="C14:C16"/>
-    <mergeCell ref="B23:B25"/>
-    <mergeCell ref="B26:B28"/>
-    <mergeCell ref="B29:B31"/>
-    <mergeCell ref="C23:C25"/>
-    <mergeCell ref="C26:C28"/>
-    <mergeCell ref="C29:C31"/>
+    <mergeCell ref="D59:D61"/>
+    <mergeCell ref="A62:A76"/>
+    <mergeCell ref="B62:B64"/>
+    <mergeCell ref="C62:C64"/>
+    <mergeCell ref="D62:D64"/>
+    <mergeCell ref="B65:B67"/>
+    <mergeCell ref="C65:C67"/>
+    <mergeCell ref="D65:D67"/>
+    <mergeCell ref="B68:B70"/>
+    <mergeCell ref="C68:C70"/>
+    <mergeCell ref="D68:D70"/>
+    <mergeCell ref="B71:B73"/>
+    <mergeCell ref="C71:C73"/>
+    <mergeCell ref="D71:D73"/>
+    <mergeCell ref="B74:B76"/>
+    <mergeCell ref="C74:C76"/>
+    <mergeCell ref="D74:D76"/>
+    <mergeCell ref="A77:A91"/>
+    <mergeCell ref="B77:B79"/>
+    <mergeCell ref="C77:C79"/>
+    <mergeCell ref="D77:D79"/>
+    <mergeCell ref="B80:B82"/>
+    <mergeCell ref="C80:C82"/>
+    <mergeCell ref="D80:D82"/>
+    <mergeCell ref="B83:B85"/>
+    <mergeCell ref="C83:C85"/>
+    <mergeCell ref="D83:D85"/>
+    <mergeCell ref="B86:B88"/>
+    <mergeCell ref="C86:C88"/>
+    <mergeCell ref="D86:D88"/>
+    <mergeCell ref="B89:B91"/>
+    <mergeCell ref="C89:C91"/>
+    <mergeCell ref="D104:D106"/>
+    <mergeCell ref="D89:D91"/>
+    <mergeCell ref="A92:A106"/>
+    <mergeCell ref="B92:B94"/>
+    <mergeCell ref="C92:C94"/>
+    <mergeCell ref="D92:D94"/>
+    <mergeCell ref="B95:B97"/>
+    <mergeCell ref="C95:C97"/>
+    <mergeCell ref="D95:D97"/>
+    <mergeCell ref="B98:B100"/>
+    <mergeCell ref="C98:C100"/>
+    <mergeCell ref="D98:D100"/>
+    <mergeCell ref="B101:B103"/>
+    <mergeCell ref="C101:C103"/>
+    <mergeCell ref="D101:D103"/>
+    <mergeCell ref="B104:B106"/>
+    <mergeCell ref="C104:C106"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <extLst>
@@ -3019,7 +3064,7 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
-        <v>64</v>
+        <v>74</v>
       </c>
       <c r="B1" t="s">
         <v>21</v>
@@ -3035,15 +3080,15 @@
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>65</v>
+        <v>75</v>
       </c>
       <c r="B3" t="s">
-        <v>66</v>
+        <v>76</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" t="s">
-        <v>67</v>
+        <v>77</v>
       </c>
       <c r="B4" t="s">
         <v>26</v>
@@ -3051,7 +3096,7 @@
     </row>
     <row r="5" spans="1:2">
       <c r="A5" t="s">
-        <v>68</v>
+        <v>54</v>
       </c>
       <c r="B5" t="s">
         <v>24</v>
@@ -3059,15 +3104,15 @@
     </row>
     <row r="6" spans="1:2">
       <c r="A6" t="s">
-        <v>69</v>
+        <v>40</v>
       </c>
       <c r="B6" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B7" t="s">
         <v>31</v>
@@ -3075,15 +3120,15 @@
     </row>
     <row r="8" spans="1:2">
       <c r="A8" t="s">
-        <v>70</v>
+        <v>78</v>
       </c>
       <c r="B8" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B9" t="s">
         <v>21</v>
@@ -3096,27 +3141,27 @@
     </row>
     <row r="11" spans="1:2">
       <c r="A11" t="s">
-        <v>71</v>
+        <v>79</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="A12" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
     </row>
     <row r="13" spans="1:2">
       <c r="A13" t="s">
-        <v>73</v>
+        <v>58</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="A14" t="s">
-        <v>74</v>
+        <v>80</v>
       </c>
     </row>
     <row r="15" spans="1:2">
       <c r="A15" t="s">
-        <v>75</v>
+        <v>81</v>
       </c>
     </row>
     <row r="16" spans="1:2">
@@ -3126,7 +3171,7 @@
     </row>
     <row r="17" spans="1:1">
       <c r="A17" t="s">
-        <v>76</v>
+        <v>64</v>
       </c>
     </row>
     <row r="18" spans="1:1">
@@ -3154,155 +3199,155 @@
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="B1" t="s">
         <v>16</v>
       </c>
       <c r="C1" t="s">
-        <v>65</v>
+        <v>75</v>
       </c>
       <c r="D1" t="s">
-        <v>67</v>
+        <v>77</v>
       </c>
       <c r="E1" t="s">
-        <v>68</v>
+        <v>54</v>
       </c>
       <c r="F1" t="s">
-        <v>69</v>
+        <v>40</v>
       </c>
       <c r="G1" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="H1" t="s">
-        <v>70</v>
+        <v>78</v>
       </c>
       <c r="I1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="J1" t="s">
         <v>35</v>
       </c>
       <c r="K1" t="s">
-        <v>71</v>
+        <v>79</v>
       </c>
       <c r="L1" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="M1" t="s">
-        <v>73</v>
+        <v>58</v>
       </c>
       <c r="N1" t="s">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="O1" t="s">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="P1" t="s">
         <v>29</v>
       </c>
       <c r="Q1" t="s">
-        <v>76</v>
+        <v>64</v>
       </c>
     </row>
     <row r="2" spans="1:17">
       <c r="A2" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="B2" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="C2" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="F2" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="J2" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="N2" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
     </row>
     <row r="3" spans="1:17">
       <c r="A3" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="B3" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="C3" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="H3" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="I3" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="M3" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
     </row>
     <row r="4" spans="1:17">
       <c r="A4" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="B4" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="D4" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="G4" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="L4" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="O4" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
     </row>
     <row r="5" spans="1:17">
       <c r="A5" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="B5" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="E5" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="F5" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="I5" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="J5" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
     </row>
     <row r="6" spans="1:17">
       <c r="A6" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="B6" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="D6" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="G6" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="K6" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="P6" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
     </row>
   </sheetData>

--- a/Test Senior Assessment Calendar.xlsx
+++ b/Test Senior Assessment Calendar.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="29429"/>
   <workbookPr/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{52A77926-9555-488D-A2C4-EA23E75FB0B1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{8FDBE795-E15C-4364-A6F6-98DBBBA70E8B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="580" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="587" uniqueCount="95">
   <si>
     <t>Week</t>
   </si>
@@ -92,7 +92,7 @@
     <t>Inclass Essay</t>
   </si>
   <si>
-    <t>Thats not all thats big</t>
+    <t>This is a note that the peoples can see</t>
   </si>
   <si>
     <t>Select Class</t>
@@ -131,6 +131,12 @@
     <t>Project</t>
   </si>
   <si>
+    <t>Visual Arts</t>
+  </si>
+  <si>
+    <t>Art thing</t>
+  </si>
+  <si>
     <t>Wed</t>
   </si>
   <si>
@@ -173,6 +179,12 @@
     <t>Portfolio</t>
   </si>
   <si>
+    <t>Maths Methods</t>
+  </si>
+  <si>
+    <t>Thjtjgeg</t>
+  </si>
+  <si>
     <t>History</t>
   </si>
   <si>
@@ -182,6 +194,9 @@
     <t>Make IT Like Mary beard</t>
   </si>
   <si>
+    <t>Sleeping</t>
+  </si>
+  <si>
     <t>Psychology</t>
   </si>
   <si>
@@ -194,12 +209,18 @@
     <t>gewgw</t>
   </si>
   <si>
+    <t>Human Biology</t>
+  </si>
+  <si>
+    <t>Bio stuff</t>
+  </si>
+  <si>
+    <t>Study</t>
+  </si>
+  <si>
     <t>13/11/2025</t>
   </si>
   <si>
-    <t>Maths Methods</t>
-  </si>
-  <si>
     <t>Methods Test</t>
   </si>
   <si>
@@ -224,6 +245,12 @@
     <t>20/11/2025</t>
   </si>
   <si>
+    <t>Chemistry</t>
+  </si>
+  <si>
+    <t>Chem Test</t>
+  </si>
+  <si>
     <t>21/11/2025</t>
   </si>
   <si>
@@ -260,9 +287,6 @@
     <t>Classes</t>
   </si>
   <si>
-    <t>Chemistry</t>
-  </si>
-  <si>
     <t>Essay</t>
   </si>
   <si>
@@ -272,13 +296,7 @@
     <t>Textiles</t>
   </si>
   <si>
-    <t>Human Biology</t>
-  </si>
-  <si>
     <t>Design Tech</t>
-  </si>
-  <si>
-    <t>Visual Arts</t>
   </si>
   <si>
     <t>PERSON</t>
@@ -706,8 +724,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Q106"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A55" workbookViewId="0">
-      <selection activeCell="H72" sqref="H72"/>
+    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="M22" sqref="M22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -903,19 +921,25 @@
         <v>31</v>
       </c>
       <c r="J7" t="s">
-        <v>20</v>
+        <v>32</v>
+      </c>
+      <c r="K7" t="s">
+        <v>33</v>
+      </c>
+      <c r="L7" s="3">
+        <v>0.4</v>
       </c>
       <c r="M7" t="s">
-        <v>21</v>
+        <v>31</v>
       </c>
     </row>
     <row r="8" spans="1:17">
       <c r="A8" s="5"/>
       <c r="B8" s="5" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="D8" s="5"/>
       <c r="E8" t="s">
@@ -949,7 +973,7 @@
         <v>21</v>
       </c>
       <c r="Q9" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -958,10 +982,10 @@
       <c r="C10" s="6"/>
       <c r="D10" s="5"/>
       <c r="E10" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="F10" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="G10" s="3">
         <v>0.15</v>
@@ -970,7 +994,7 @@
         <v>18</v>
       </c>
       <c r="I10" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="J10" t="s">
         <v>20</v>
@@ -982,17 +1006,17 @@
     <row r="11" spans="1:17">
       <c r="A11" s="5"/>
       <c r="B11" s="5" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="C11" s="6" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="D11" s="5"/>
       <c r="E11" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="F11" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="G11" s="3">
         <v>0.25</v>
@@ -1047,26 +1071,32 @@
     <row r="14" spans="1:17">
       <c r="A14" s="5"/>
       <c r="B14" s="5" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="C14" s="6" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="D14" s="5"/>
       <c r="E14" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="F14" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="H14" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="J14" t="s">
-        <v>20</v>
+        <v>48</v>
+      </c>
+      <c r="K14" t="s">
+        <v>49</v>
+      </c>
+      <c r="L14" s="3">
+        <v>0.2</v>
       </c>
       <c r="M14" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
     </row>
     <row r="15" spans="1:17">
@@ -1135,10 +1165,10 @@
       <c r="C18" s="5"/>
       <c r="D18" s="5"/>
       <c r="E18" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="F18" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="G18" s="3">
         <v>0.9</v>
@@ -1147,7 +1177,7 @@
         <v>31</v>
       </c>
       <c r="I18" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="J18" t="s">
         <v>20</v>
@@ -1220,22 +1250,34 @@
       <c r="C22" s="6"/>
       <c r="D22" s="5"/>
       <c r="E22" t="s">
-        <v>20</v>
+        <v>48</v>
+      </c>
+      <c r="F22" t="s">
+        <v>53</v>
+      </c>
+      <c r="G22" s="3">
+        <v>0.8</v>
       </c>
       <c r="H22" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="J22" t="s">
-        <v>20</v>
+        <v>48</v>
+      </c>
+      <c r="K22" t="s">
+        <v>53</v>
+      </c>
+      <c r="L22" s="3">
+        <v>0.4</v>
       </c>
       <c r="M22" t="s">
-        <v>21</v>
+        <v>31</v>
       </c>
     </row>
     <row r="23" spans="1:13">
       <c r="A23" s="5"/>
       <c r="B23" s="5" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="C23" s="6">
         <v>45788</v>
@@ -1278,19 +1320,19 @@
       <c r="C25" s="6"/>
       <c r="D25" s="5"/>
       <c r="E25" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="F25" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="G25" s="3">
         <v>0.99</v>
       </c>
       <c r="H25" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="I25" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="J25" t="s">
         <v>20</v>
@@ -1302,7 +1344,7 @@
     <row r="26" spans="1:13">
       <c r="A26" s="5"/>
       <c r="B26" s="5" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="C26" s="6">
         <v>45819</v>
@@ -1360,17 +1402,26 @@
     <row r="29" spans="1:13">
       <c r="A29" s="5"/>
       <c r="B29" s="5" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="C29" s="6">
         <v>45849</v>
       </c>
       <c r="D29" s="5"/>
       <c r="E29" t="s">
-        <v>20</v>
+        <v>58</v>
+      </c>
+      <c r="F29" t="s">
+        <v>59</v>
+      </c>
+      <c r="G29" s="3">
+        <v>0.42</v>
       </c>
       <c r="H29" t="s">
-        <v>21</v>
+        <v>31</v>
+      </c>
+      <c r="I29" t="s">
+        <v>60</v>
       </c>
       <c r="J29" t="s">
         <v>20</v>
@@ -1536,7 +1587,7 @@
     <row r="38" spans="1:13">
       <c r="A38" s="5"/>
       <c r="B38" s="5" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="C38" s="6">
         <v>46002</v>
@@ -1594,10 +1645,10 @@
     <row r="41" spans="1:13">
       <c r="A41" s="5"/>
       <c r="B41" s="5" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="C41" s="6" t="s">
-        <v>53</v>
+        <v>61</v>
       </c>
       <c r="D41" s="5"/>
       <c r="E41" t="s">
@@ -1619,10 +1670,10 @@
       <c r="C42" s="5"/>
       <c r="D42" s="5"/>
       <c r="E42" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="F42" t="s">
-        <v>55</v>
+        <v>62</v>
       </c>
       <c r="G42" s="3">
         <v>0.3</v>
@@ -1658,10 +1709,10 @@
     <row r="44" spans="1:13">
       <c r="A44" s="5"/>
       <c r="B44" s="5" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="C44" s="6" t="s">
-        <v>56</v>
+        <v>63</v>
       </c>
       <c r="D44" s="5"/>
       <c r="E44" t="s">
@@ -1721,7 +1772,7 @@
         <v>14</v>
       </c>
       <c r="C47" s="6" t="s">
-        <v>57</v>
+        <v>64</v>
       </c>
       <c r="D47" s="5"/>
       <c r="E47" t="s">
@@ -1761,10 +1812,10 @@
       <c r="C49" s="5"/>
       <c r="D49" s="5"/>
       <c r="E49" t="s">
-        <v>58</v>
+        <v>65</v>
       </c>
       <c r="F49" t="s">
-        <v>59</v>
+        <v>66</v>
       </c>
       <c r="G49" s="3">
         <v>0.12</v>
@@ -1785,7 +1836,7 @@
         <v>27</v>
       </c>
       <c r="C50" s="6" t="s">
-        <v>60</v>
+        <v>67</v>
       </c>
       <c r="D50" s="5"/>
       <c r="E50" t="s">
@@ -1840,10 +1891,10 @@
     <row r="53" spans="1:13">
       <c r="A53" s="5"/>
       <c r="B53" s="5" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="C53" s="6" t="s">
-        <v>61</v>
+        <v>68</v>
       </c>
       <c r="D53" s="5"/>
       <c r="E53" t="s">
@@ -1898,17 +1949,23 @@
     <row r="56" spans="1:13">
       <c r="A56" s="5"/>
       <c r="B56" s="5" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="C56" s="6" t="s">
-        <v>62</v>
+        <v>69</v>
       </c>
       <c r="D56" s="5"/>
       <c r="E56" t="s">
-        <v>20</v>
+        <v>70</v>
+      </c>
+      <c r="F56" t="s">
+        <v>71</v>
+      </c>
+      <c r="G56" s="3">
+        <v>0.25</v>
       </c>
       <c r="H56" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="J56" t="s">
         <v>20</v>
@@ -1956,10 +2013,10 @@
     <row r="59" spans="1:13">
       <c r="A59" s="5"/>
       <c r="B59" s="5" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="C59" s="6" t="s">
-        <v>63</v>
+        <v>72</v>
       </c>
       <c r="D59" s="5"/>
       <c r="E59" t="s">
@@ -1999,16 +2056,16 @@
       <c r="C61" s="5"/>
       <c r="D61" s="5"/>
       <c r="E61" t="s">
-        <v>64</v>
+        <v>73</v>
       </c>
       <c r="F61" t="s">
-        <v>65</v>
+        <v>74</v>
       </c>
       <c r="G61" s="3">
         <v>0.8</v>
       </c>
       <c r="H61" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="J61" t="s">
         <v>20</v>
@@ -2025,7 +2082,7 @@
         <v>14</v>
       </c>
       <c r="C62" s="6" t="s">
-        <v>66</v>
+        <v>75</v>
       </c>
       <c r="D62" s="5"/>
       <c r="E62" t="s">
@@ -2083,7 +2140,7 @@
         <v>27</v>
       </c>
       <c r="C65" s="6" t="s">
-        <v>67</v>
+        <v>76</v>
       </c>
       <c r="D65" s="5"/>
       <c r="E65" t="s">
@@ -2138,10 +2195,10 @@
     <row r="68" spans="1:13">
       <c r="A68" s="5"/>
       <c r="B68" s="5" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="C68" s="6" t="s">
-        <v>68</v>
+        <v>77</v>
       </c>
       <c r="D68" s="5"/>
       <c r="E68" t="s">
@@ -2196,10 +2253,10 @@
     <row r="71" spans="1:13">
       <c r="A71" s="5"/>
       <c r="B71" s="5" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="C71" s="6" t="s">
-        <v>69</v>
+        <v>78</v>
       </c>
       <c r="D71" s="5"/>
       <c r="E71" t="s">
@@ -2221,16 +2278,16 @@
       <c r="C72" s="5"/>
       <c r="D72" s="5"/>
       <c r="E72" t="s">
-        <v>70</v>
+        <v>79</v>
       </c>
       <c r="F72" t="s">
-        <v>71</v>
+        <v>80</v>
       </c>
       <c r="G72" s="3">
         <v>0.15</v>
       </c>
       <c r="H72" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="J72" t="s">
         <v>20</v>
@@ -2260,10 +2317,10 @@
     <row r="74" spans="1:13">
       <c r="A74" s="5"/>
       <c r="B74" s="5" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="C74" s="6" t="s">
-        <v>72</v>
+        <v>81</v>
       </c>
       <c r="D74" s="5"/>
       <c r="E74" t="s">
@@ -2436,7 +2493,7 @@
     <row r="83" spans="1:13">
       <c r="A83" s="5"/>
       <c r="B83" s="5" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="C83" s="6">
         <v>45728</v>
@@ -2494,7 +2551,7 @@
     <row r="86" spans="1:13">
       <c r="A86" s="5"/>
       <c r="B86" s="5" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="C86" s="6">
         <v>45759</v>
@@ -2552,7 +2609,7 @@
     <row r="89" spans="1:13">
       <c r="A89" s="5"/>
       <c r="B89" s="5" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="C89" s="6">
         <v>45789</v>
@@ -2728,7 +2785,7 @@
     <row r="98" spans="1:13">
       <c r="A98" s="5"/>
       <c r="B98" s="5" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="C98" s="6">
         <v>45973</v>
@@ -2786,7 +2843,7 @@
     <row r="101" spans="1:13">
       <c r="A101" s="5"/>
       <c r="B101" s="5" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="C101" s="6">
         <v>46003</v>
@@ -2844,10 +2901,10 @@
     <row r="104" spans="1:13">
       <c r="A104" s="5"/>
       <c r="B104" s="5" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="C104" s="6" t="s">
-        <v>73</v>
+        <v>82</v>
       </c>
       <c r="D104" s="5"/>
       <c r="E104" t="s">
@@ -2901,45 +2958,55 @@
     </row>
   </sheetData>
   <mergeCells count="112">
-    <mergeCell ref="D8:D10"/>
-    <mergeCell ref="D2:D4"/>
-    <mergeCell ref="B5:B7"/>
-    <mergeCell ref="C5:C7"/>
-    <mergeCell ref="D5:D7"/>
-    <mergeCell ref="B2:B4"/>
-    <mergeCell ref="C2:C4"/>
-    <mergeCell ref="A2:A16"/>
-    <mergeCell ref="A17:A31"/>
-    <mergeCell ref="B8:B10"/>
-    <mergeCell ref="C8:C10"/>
-    <mergeCell ref="B11:B13"/>
-    <mergeCell ref="B14:B16"/>
-    <mergeCell ref="C14:C16"/>
-    <mergeCell ref="B23:B25"/>
-    <mergeCell ref="B26:B28"/>
-    <mergeCell ref="B29:B31"/>
-    <mergeCell ref="C23:C25"/>
-    <mergeCell ref="C26:C28"/>
-    <mergeCell ref="C29:C31"/>
-    <mergeCell ref="C41:C43"/>
-    <mergeCell ref="C44:C46"/>
-    <mergeCell ref="B32:B34"/>
-    <mergeCell ref="B35:B37"/>
-    <mergeCell ref="B38:B40"/>
-    <mergeCell ref="B41:B43"/>
-    <mergeCell ref="B44:B46"/>
-    <mergeCell ref="D14:D16"/>
-    <mergeCell ref="D11:D13"/>
-    <mergeCell ref="C11:C13"/>
-    <mergeCell ref="B17:B19"/>
-    <mergeCell ref="B20:B22"/>
-    <mergeCell ref="C17:C19"/>
-    <mergeCell ref="C20:C22"/>
-    <mergeCell ref="D17:D19"/>
-    <mergeCell ref="D20:D22"/>
-    <mergeCell ref="D23:D25"/>
-    <mergeCell ref="D26:D28"/>
-    <mergeCell ref="D29:D31"/>
+    <mergeCell ref="D104:D106"/>
+    <mergeCell ref="D89:D91"/>
+    <mergeCell ref="A92:A106"/>
+    <mergeCell ref="B92:B94"/>
+    <mergeCell ref="C92:C94"/>
+    <mergeCell ref="D92:D94"/>
+    <mergeCell ref="B95:B97"/>
+    <mergeCell ref="C95:C97"/>
+    <mergeCell ref="D95:D97"/>
+    <mergeCell ref="B98:B100"/>
+    <mergeCell ref="C98:C100"/>
+    <mergeCell ref="D98:D100"/>
+    <mergeCell ref="B101:B103"/>
+    <mergeCell ref="C101:C103"/>
+    <mergeCell ref="D101:D103"/>
+    <mergeCell ref="B104:B106"/>
+    <mergeCell ref="C104:C106"/>
+    <mergeCell ref="A77:A91"/>
+    <mergeCell ref="B77:B79"/>
+    <mergeCell ref="C77:C79"/>
+    <mergeCell ref="D77:D79"/>
+    <mergeCell ref="B80:B82"/>
+    <mergeCell ref="C80:C82"/>
+    <mergeCell ref="D80:D82"/>
+    <mergeCell ref="B83:B85"/>
+    <mergeCell ref="C83:C85"/>
+    <mergeCell ref="D83:D85"/>
+    <mergeCell ref="B86:B88"/>
+    <mergeCell ref="C86:C88"/>
+    <mergeCell ref="D86:D88"/>
+    <mergeCell ref="B89:B91"/>
+    <mergeCell ref="C89:C91"/>
+    <mergeCell ref="D59:D61"/>
+    <mergeCell ref="A62:A76"/>
+    <mergeCell ref="B62:B64"/>
+    <mergeCell ref="C62:C64"/>
+    <mergeCell ref="D62:D64"/>
+    <mergeCell ref="B65:B67"/>
+    <mergeCell ref="C65:C67"/>
+    <mergeCell ref="D65:D67"/>
+    <mergeCell ref="B68:B70"/>
+    <mergeCell ref="C68:C70"/>
+    <mergeCell ref="D68:D70"/>
+    <mergeCell ref="B71:B73"/>
+    <mergeCell ref="C71:C73"/>
+    <mergeCell ref="D71:D73"/>
+    <mergeCell ref="B74:B76"/>
+    <mergeCell ref="C74:C76"/>
+    <mergeCell ref="D74:D76"/>
     <mergeCell ref="A32:A46"/>
     <mergeCell ref="A47:A61"/>
     <mergeCell ref="B47:B49"/>
@@ -2964,55 +3031,45 @@
     <mergeCell ref="C32:C34"/>
     <mergeCell ref="C35:C37"/>
     <mergeCell ref="C38:C40"/>
-    <mergeCell ref="D59:D61"/>
-    <mergeCell ref="A62:A76"/>
-    <mergeCell ref="B62:B64"/>
-    <mergeCell ref="C62:C64"/>
-    <mergeCell ref="D62:D64"/>
-    <mergeCell ref="B65:B67"/>
-    <mergeCell ref="C65:C67"/>
-    <mergeCell ref="D65:D67"/>
-    <mergeCell ref="B68:B70"/>
-    <mergeCell ref="C68:C70"/>
-    <mergeCell ref="D68:D70"/>
-    <mergeCell ref="B71:B73"/>
-    <mergeCell ref="C71:C73"/>
-    <mergeCell ref="D71:D73"/>
-    <mergeCell ref="B74:B76"/>
-    <mergeCell ref="C74:C76"/>
-    <mergeCell ref="D74:D76"/>
-    <mergeCell ref="A77:A91"/>
-    <mergeCell ref="B77:B79"/>
-    <mergeCell ref="C77:C79"/>
-    <mergeCell ref="D77:D79"/>
-    <mergeCell ref="B80:B82"/>
-    <mergeCell ref="C80:C82"/>
-    <mergeCell ref="D80:D82"/>
-    <mergeCell ref="B83:B85"/>
-    <mergeCell ref="C83:C85"/>
-    <mergeCell ref="D83:D85"/>
-    <mergeCell ref="B86:B88"/>
-    <mergeCell ref="C86:C88"/>
-    <mergeCell ref="D86:D88"/>
-    <mergeCell ref="B89:B91"/>
-    <mergeCell ref="C89:C91"/>
-    <mergeCell ref="D104:D106"/>
-    <mergeCell ref="D89:D91"/>
-    <mergeCell ref="A92:A106"/>
-    <mergeCell ref="B92:B94"/>
-    <mergeCell ref="C92:C94"/>
-    <mergeCell ref="D92:D94"/>
-    <mergeCell ref="B95:B97"/>
-    <mergeCell ref="C95:C97"/>
-    <mergeCell ref="D95:D97"/>
-    <mergeCell ref="B98:B100"/>
-    <mergeCell ref="C98:C100"/>
-    <mergeCell ref="D98:D100"/>
-    <mergeCell ref="B101:B103"/>
-    <mergeCell ref="C101:C103"/>
-    <mergeCell ref="D101:D103"/>
-    <mergeCell ref="B104:B106"/>
-    <mergeCell ref="C104:C106"/>
+    <mergeCell ref="C41:C43"/>
+    <mergeCell ref="C44:C46"/>
+    <mergeCell ref="B32:B34"/>
+    <mergeCell ref="B35:B37"/>
+    <mergeCell ref="B38:B40"/>
+    <mergeCell ref="B41:B43"/>
+    <mergeCell ref="B44:B46"/>
+    <mergeCell ref="D14:D16"/>
+    <mergeCell ref="D11:D13"/>
+    <mergeCell ref="C11:C13"/>
+    <mergeCell ref="B17:B19"/>
+    <mergeCell ref="B20:B22"/>
+    <mergeCell ref="C17:C19"/>
+    <mergeCell ref="C20:C22"/>
+    <mergeCell ref="D17:D19"/>
+    <mergeCell ref="D20:D22"/>
+    <mergeCell ref="D23:D25"/>
+    <mergeCell ref="D26:D28"/>
+    <mergeCell ref="D29:D31"/>
+    <mergeCell ref="D8:D10"/>
+    <mergeCell ref="D2:D4"/>
+    <mergeCell ref="B5:B7"/>
+    <mergeCell ref="C5:C7"/>
+    <mergeCell ref="D5:D7"/>
+    <mergeCell ref="B2:B4"/>
+    <mergeCell ref="C2:C4"/>
+    <mergeCell ref="A2:A16"/>
+    <mergeCell ref="A17:A31"/>
+    <mergeCell ref="B8:B10"/>
+    <mergeCell ref="C8:C10"/>
+    <mergeCell ref="B11:B13"/>
+    <mergeCell ref="B14:B16"/>
+    <mergeCell ref="C14:C16"/>
+    <mergeCell ref="B23:B25"/>
+    <mergeCell ref="B26:B28"/>
+    <mergeCell ref="B29:B31"/>
+    <mergeCell ref="C23:C25"/>
+    <mergeCell ref="C26:C28"/>
+    <mergeCell ref="C29:C31"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <extLst>
@@ -3064,7 +3121,7 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
-        <v>74</v>
+        <v>83</v>
       </c>
       <c r="B1" t="s">
         <v>21</v>
@@ -3080,15 +3137,15 @@
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="B3" t="s">
-        <v>76</v>
+        <v>84</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" t="s">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="B4" t="s">
         <v>26</v>
@@ -3096,7 +3153,7 @@
     </row>
     <row r="5" spans="1:2">
       <c r="A5" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="B5" t="s">
         <v>24</v>
@@ -3104,15 +3161,15 @@
     </row>
     <row r="6" spans="1:2">
       <c r="A6" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B6" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="B7" t="s">
         <v>31</v>
@@ -3120,15 +3177,15 @@
     </row>
     <row r="8" spans="1:2">
       <c r="A8" t="s">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="B8" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="B9" t="s">
         <v>21</v>
@@ -3136,32 +3193,32 @@
     </row>
     <row r="10" spans="1:2">
       <c r="A10" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" t="s">
-        <v>79</v>
+        <v>58</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="A12" t="s">
-        <v>70</v>
+        <v>79</v>
       </c>
     </row>
     <row r="13" spans="1:2">
       <c r="A13" t="s">
-        <v>58</v>
+        <v>65</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="A14" t="s">
-        <v>80</v>
+        <v>87</v>
       </c>
     </row>
     <row r="15" spans="1:2">
       <c r="A15" t="s">
-        <v>81</v>
+        <v>32</v>
       </c>
     </row>
     <row r="16" spans="1:2">
@@ -3171,7 +3228,7 @@
     </row>
     <row r="17" spans="1:1">
       <c r="A17" t="s">
-        <v>64</v>
+        <v>73</v>
       </c>
     </row>
     <row r="18" spans="1:1">
@@ -3199,155 +3256,155 @@
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" t="s">
-        <v>82</v>
+        <v>88</v>
       </c>
       <c r="B1" t="s">
         <v>16</v>
       </c>
       <c r="C1" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="D1" t="s">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="E1" t="s">
+        <v>48</v>
+      </c>
+      <c r="F1" t="s">
+        <v>42</v>
+      </c>
+      <c r="G1" t="s">
         <v>54</v>
       </c>
-      <c r="F1" t="s">
-        <v>40</v>
-      </c>
-      <c r="G1" t="s">
-        <v>49</v>
-      </c>
       <c r="H1" t="s">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="I1" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="J1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="K1" t="s">
+        <v>58</v>
+      </c>
+      <c r="L1" t="s">
         <v>79</v>
       </c>
-      <c r="L1" t="s">
-        <v>70</v>
-      </c>
       <c r="M1" t="s">
-        <v>58</v>
+        <v>65</v>
       </c>
       <c r="N1" t="s">
-        <v>80</v>
+        <v>87</v>
       </c>
       <c r="O1" t="s">
-        <v>81</v>
+        <v>32</v>
       </c>
       <c r="P1" t="s">
         <v>29</v>
       </c>
       <c r="Q1" t="s">
-        <v>64</v>
+        <v>73</v>
       </c>
     </row>
     <row r="2" spans="1:17">
       <c r="A2" t="s">
-        <v>83</v>
+        <v>89</v>
       </c>
       <c r="B2" t="s">
-        <v>84</v>
+        <v>90</v>
       </c>
       <c r="C2" t="s">
-        <v>84</v>
+        <v>90</v>
       </c>
       <c r="F2" t="s">
-        <v>84</v>
+        <v>90</v>
       </c>
       <c r="J2" t="s">
-        <v>84</v>
+        <v>90</v>
       </c>
       <c r="N2" t="s">
-        <v>84</v>
+        <v>90</v>
       </c>
     </row>
     <row r="3" spans="1:17">
       <c r="A3" t="s">
-        <v>85</v>
+        <v>91</v>
       </c>
       <c r="B3" t="s">
-        <v>84</v>
+        <v>90</v>
       </c>
       <c r="C3" t="s">
-        <v>84</v>
+        <v>90</v>
       </c>
       <c r="H3" t="s">
-        <v>84</v>
+        <v>90</v>
       </c>
       <c r="I3" t="s">
-        <v>84</v>
+        <v>90</v>
       </c>
       <c r="M3" t="s">
-        <v>84</v>
+        <v>90</v>
       </c>
     </row>
     <row r="4" spans="1:17">
       <c r="A4" t="s">
-        <v>86</v>
+        <v>92</v>
       </c>
       <c r="B4" t="s">
-        <v>84</v>
+        <v>90</v>
       </c>
       <c r="D4" t="s">
-        <v>84</v>
+        <v>90</v>
       </c>
       <c r="G4" t="s">
-        <v>84</v>
+        <v>90</v>
       </c>
       <c r="L4" t="s">
-        <v>84</v>
+        <v>90</v>
       </c>
       <c r="O4" t="s">
-        <v>84</v>
+        <v>90</v>
       </c>
     </row>
     <row r="5" spans="1:17">
       <c r="A5" t="s">
-        <v>87</v>
+        <v>93</v>
       </c>
       <c r="B5" t="s">
-        <v>84</v>
+        <v>90</v>
       </c>
       <c r="E5" t="s">
-        <v>84</v>
+        <v>90</v>
       </c>
       <c r="F5" t="s">
-        <v>84</v>
+        <v>90</v>
       </c>
       <c r="I5" t="s">
-        <v>84</v>
+        <v>90</v>
       </c>
       <c r="J5" t="s">
-        <v>84</v>
+        <v>90</v>
       </c>
     </row>
     <row r="6" spans="1:17">
       <c r="A6" t="s">
-        <v>88</v>
+        <v>94</v>
       </c>
       <c r="B6" t="s">
-        <v>84</v>
+        <v>90</v>
       </c>
       <c r="D6" t="s">
-        <v>84</v>
+        <v>90</v>
       </c>
       <c r="G6" t="s">
-        <v>84</v>
+        <v>90</v>
       </c>
       <c r="K6" t="s">
-        <v>84</v>
+        <v>90</v>
       </c>
       <c r="P6" t="s">
-        <v>84</v>
+        <v>90</v>
       </c>
     </row>
   </sheetData>
